--- a/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/dense_analysis_results_jats.xlsx
+++ b/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/dense_analysis_results_jats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/Round_3_dense_analysis_specter_embed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AB5CE6-F47E-0B49-BE63-5AF79EC9BB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A5EF14-C354-EE46-80CA-336EE22EC416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="106">
   <si>
     <t>Query</t>
   </si>
@@ -43,539 +43,571 @@
     <t>Faithfulness score</t>
   </si>
   <si>
+    <t>Documents score</t>
+  </si>
+  <si>
     <t>Response</t>
   </si>
   <si>
     <t>which studies examined the abstract in metadata?</t>
   </si>
   <si>
-    <t>Summary answer: Only one study explicitly examined the availability of abstracts in metadata, while others touched on metadata quality and bibliographic data sources more broadly.  
-DOI: 10.31222/osf.io/smxe5 - This study provides an overview of the availability of six metadata elements, including abstracts, in Crossref, highlighting improvements over time but noting that further efforts are needed for full openness.  
-DOI: 10.48550/arXiv.2406.15154 - This study focuses on comparing publication and document types across bibliographic databases, including OpenAlex, Scopus, Web of Science, Semantic Scholar, and PubMed, without explicitly examining abstracts in metadata.  
-DOI: 10.1162/qss_a_00112 - This large-scale comparison of bibliographic data sources analyzes coverage, completeness, and accuracy of citation links but does not specifically address abstracts in metadata.  
-DOI: 10.1371/journal.pbio.1002542 - This study discusses citation metrics and normalization challenges but does not examine abstracts in metadata.  
-DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues across cultures, focusing on consistency and completeness, but does not specifically address abstracts.  
-Concluding statement: While only one study directly examined the availability of abstracts in metadata, the broader context of metadata quality and bibliographic data sources remains a critical area of research for improving scholarly communication and accessibility.</t>
+    <t>[(0.8741539120674133, '10.31222/osf.io/smxe5'), (0.8664552569389343, '10.48550/arXiv.2406.15154'), (0.8623441457748413, '10.1162/qss_a_00112'), (0.8530017733573914, '10.1371/journal.pbio.1002542'), (0.8527482748031616, '10.5860/crl.86.1.101')]</t>
+  </si>
+  <si>
+    <t>Summary answer: Only one study explicitly examined the availability of abstracts in metadata, while others focused on broader metadata quality and bibliographic data source comparisons.  
+DOI: 10.31222/osf.io/smxe5 - This study presents an overview of the availability of six metadata elements, including abstracts, in Crossref, highlighting improvements over time but noting the need for further efforts by publishers to ensure full openness of bibliographic metadata.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across multiple bibliographic databases, focusing on OpenAlex, but does not specifically examine abstracts in metadata.  
+DOI: 10.1162/qss_a_00112 - This large-scale comparison of bibliographic data sources analyzes coverage, completeness, and accuracy of citation links but does not focus on abstracts in metadata.  
+DOI: 10.1371/journal.pbio.1002542 - This primer discusses citation metrics and normalization challenges but does not address abstracts in metadata.  
+DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues across cultures, focusing on consistency and completeness, but does not specifically examine abstracts.  
+Concluding statement: While only one study directly examined the availability of abstracts in metadata, the broader context of metadata quality and bibliographic data source comparisons remains a critical area of research.</t>
   </si>
   <si>
     <t>which studies examined citations?</t>
+  </si>
+  <si>
+    <t>[(0.8481356501579285, '10.48550/arXiv.2406.15154'), (0.8411403894424438, '10.1162/qss_a_00112'), (0.8294409513473511, '10.1371/journal.pbio.1002542'), (0.8121000528335571, '10.48550/arXiv.2404.17663'), (0.8093053698539734, '10.1162/qss_a_00212')]</t>
+  </si>
+  <si>
+    <t>Summary answer: Several studies have examined citations, focusing on their accuracy, completeness, and normalization across different bibliographic databases.  
+DOI: 10.1162/qss_a_00112 - This study compares five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and specifically analyzes differences in the completeness and accuracy of citation links, highlighting the strengths and weaknesses of each source.  
+DOI: 10.1371/journal.pbio.1002542 - The paper discusses the challenges and approaches to normalizing citation metrics, considering factors like scientific fields, publication age, and document type, while emphasizing the complementary insights different metrics can provide.  
+Concluding statement: These studies collectively underscore the importance of understanding citation data across various databases and the need for careful normalization and critical evaluation of citation metrics in bibliometric analyses.</t>
+  </si>
+  <si>
+    <t>Tell me about OpenAlex.</t>
+  </si>
+  <si>
+    <t>[(0.8497931957244873, '10.31222/osf.io/smxe5'), (0.8375718593597412, '10.48550/arXiv.2404.17663'), (0.8366895318031311, '10.1162/qss_a_00212'), (0.8355947136878967, '10.1371/journal.pbio.1002542'), (0.8175375461578369, '10.1162/qss_a_00112')]</t>
+  </si>
+  <si>
+    <t>Summary answer: OpenAlex is an emerging inclusive bibliographic database that shows promise as a reliable alternative to traditional databases like Scopus, particularly for certain types of analyses, but requires further research to address limitations in metadata accuracy and completeness.
+DOI: 10.48550/arXiv.2404.17663 - An analysis comparing OpenAlex to Scopus reveals that OpenAlex is a superset of Scopus, making it a suitable alternative for some bibliometric analyses, especially at the country level, although issues with metadata accuracy and completeness necessitate further investigation.
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources highlights the importance of comprehensive coverage and flexible filtering, which OpenAlex, as a new inclusive database, aims to provide, though its full potential is still being explored.
+Concluding statement: While OpenAlex demonstrates significant potential as an inclusive and comprehensive bibliographic database, ongoing research is essential to fully understand and mitigate its current limitations, ensuring its reliability and utility across diverse bibliometric analyses.</t>
+  </si>
+  <si>
+    <t>Tell me about Crossref.</t>
+  </si>
+  <si>
+    <t>[(0.8556635975837708, '10.1371/journal.pbio.1002542'), (0.85418301820755, '10.31222/osf.io/smxe5'), (0.8340746164321899, '10.1162/qss_a_00112'), (0.8336937427520752, '10.48550/arXiv.2404.17663'), (0.8218367099761963, '10.5860/crl.86.1.101')]</t>
+  </si>
+  <si>
+    <t>Crossref is a key provider of open bibliographic metadata, offering improved availability of metadata elements over time, though challenges remain in achieving full openness and metadata quality.  
+DOI: 10.31222/osf.io/smxe5 - Crossref has seen improvements in the availability of metadata elements like reference lists, abstracts, and ORCIDs, particularly for journal articles, but many publishers still need to enhance efforts for full openness.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths and weaknesses in coverage, completeness, and accuracy of citation links, emphasizing the need for flexible filtering options.  
+Crossref plays a vital role in promoting open bibliographic metadata, yet ongoing efforts are required to address metadata quality and completeness to maximize its utility in scholarly communication.</t>
+  </si>
+  <si>
+    <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
+  </si>
+  <si>
+    <t>[(0.9033930897712708, '10.48550/arXiv.2406.15154'), (0.8978310227394104, '10.1162/qss_a_00112'), (0.8930984735488892, '10.1162/qss_a_00286'), (0.887661874294281, '10.31222/osf.io/smxe5'), (0.8793550729751587, '10.48550/arXiv.2409.10633')]</t>
+  </si>
+  <si>
+    <t>Several papers evaluate the linguistic coverage or language-related metadata in scholarly databases, highlighting differences in completeness, accuracy, and inclusivity across various platforms.  
+DOI: 10.48550/arXiv.2409.10633 - This study assesses the linguistic coverage of OpenAlex, comparing its metadata accuracy and completeness with Web of Science (WoS). It finds that OpenAlex offers a more balanced linguistic representation than WoS but notes inaccuracies in language metadata, particularly overestimating English usage.  
+DOI: 10.1162/qss_a_00286 - This paper evaluates the completeness of publication metadata, including language, in eight free-access scholarly databases. It reveals that third-party databases like OpenAlex and Dimensions have higher metadata quality and completeness compared to academic search engines like Google Scholar.  
+DOI: 10.31222/osf.io/smxe5 - This research examines the availability of metadata elements, including language, in Crossref, highlighting improvements over time but noting the need for publishers to enhance openness and completeness.  
+Concluding statement: These studies collectively emphasize the importance of accurate and comprehensive language-related metadata in scholarly databases, with OpenAlex showing promise in linguistic inclusivity despite existing limitations.</t>
+  </si>
+  <si>
+    <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
+  </si>
+  <si>
+    <t>[(0.9000743627548218, '10.1162/qss_a_00212'), (0.8943854570388794, '10.31222/osf.io/smxe5'), (0.8916628956794739, '10.1371/journal.pbio.1002542'), (0.8826417922973633, '10.48550/arXiv.2404.17663'), (0.8800884485244751, '10.1162/qss_a_00112')]</t>
+  </si>
+  <si>
+    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, and Web of Science.  
+DOI: 10.1162/qss_a_00212 - This paper analyzes the open availability of funding data in Crossref, especially for COVID-19 research, and compares it with proprietary databases like Scopus and Web of Science, highlighting limited coverage and quality issues in funding metadata.  
+DOI: 10.31222/osf.io/smxe5 - The study evaluates the availability of funding information as part of open bibliographic metadata in Crossref, noting improvements over time but emphasizing the need for further efforts by publishers to ensure full openness.  
+DOI: 10.1162/qss_a_00112 - While primarily a large-scale comparison of bibliographic data sources, this paper touches on the completeness and accuracy of metadata, including funding information, across platforms like Scopus, Web of Science, and Crossref.  
+Concluding statement: These papers collectively highlight the challenges and opportunities in improving the availability and quality of funding metadata in scholarly databases, with a particular focus on open data infrastructures like Crossref.</t>
+  </si>
+  <si>
+    <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+  </si>
+  <si>
+    <t>[(0.8968507051467896, '10.48550/arXiv.2312.10997'), (0.8688734173774719, '10.1609/aaai.v38i16.29728'), (0.8628872632980347, '10.48550/arXiv.2406.13213'), (0.8309340476989746, '10.1145/3626772.3657848'), (0.8283409476280212, '10.1007/978-3-031-88708-6_3')]</t>
+  </si>
+  <si>
+    <t>Retrieval-Augmented Generation (RAG) is discussed in several papers as a method to enhance the capabilities of large language models (LLMs) by integrating external knowledge, improving accuracy, and addressing challenges like hallucination.  
+DOI: 10.48550/arXiv.2312.10997 - This survey paper provides a comprehensive overview of RAG paradigms, including Naive RAG, Advanced RAG, and Modular RAG, and examines the tripartite foundation of RAG frameworks: retrieval, generation, and augmentation techniques, while also discussing evaluation frameworks and future research directions.  
+DOI: 10.1609/aaai.v38i16.29728 - This paper introduces the Retrieval-Augmented Generation Benchmark (RGB) to evaluate the performance of LLMs in RAG across four fundamental abilities: noise robustness, negative rejection, information integration, and counterfactual robustness, revealing areas where LLMs still face challenges.  
+DOI: 10.48550/arXiv.2406.13213 - The study proposes Multi-Meta-RAG, a method to improve RAG for multi-hop queries by using database filtering with LLM-extracted metadata, demonstrating significant improvements on the MultiHop-RAG benchmark.  
+DOI: 10.1145/3626772.3657848 - While not exclusively focused on RAG, this perspective paper discusses the role of LLMs in information retrieval (IR) and suggests that future LLMs will need to interact with search engines to enhance their utility, indirectly highlighting the relevance of RAG in this context.  
+DOI: 10.1007/978-3-031-88708-6_3 - This paper investigates the relationship between relevance and utility in RAG systems, finding a small positive correlation that decreases with larger context sizes and that more effective retrieval models generally improve downstream RAG performance.  
+In conclusion, these papers collectively highlight the potential and challenges of RAG in enhancing LLMs, offering insights into its application, evaluation, and future development.</t>
+  </si>
+  <si>
+    <t>What is Crossref’s role in the scholarly research ecosystem?</t>
+  </si>
+  <si>
+    <t>[(0.88006991147995, '10.31222/osf.io/smxe5'), (0.8668272495269775, '10.1162/qss_a_00212'), (0.8558934330940247, '10.48550/arXiv.2406.15154'), (0.8540039658546448, '10.1162/qss_a_00112'), (0.8477672338485718, '10.1371/journal.pbio.1002542')]</t>
+  </si>
+  <si>
+    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata and supporting the traceability of research outputs, though its coverage and data quality require ongoing improvement.  
+DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improvements noted in the availability of elements like reference lists, abstracts, and ORCIDs, though full openness remains a challenge for many publishers.  
+DOI: 10.1162/qss_a_00212 - Crossref facilitates the tracking of funding data for research publications, including COVID-19 studies, but its coverage and data quality are limited compared to proprietary databases like Scopus and Web of Science.  
+DOI: 10.1162/qss_a_00112 - Crossref is one of several multidisciplinary bibliographic data sources, offering comprehensive coverage of scientific literature, though its strengths and weaknesses vary compared to platforms like Scopus, Web of Science, and Dimensions.  
+In conclusion, Crossref is a vital component of the scholarly research ecosystem, enhancing metadata accessibility and research traceability, but continued efforts are needed to address gaps in coverage and data quality.</t>
+  </si>
+  <si>
+    <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
+  </si>
+  <si>
+    <t>[(0.9190517067909241, '10.31222/osf.io/smxe5'), (0.9146504998207092, '10.48550/arXiv.2406.15154'), (0.9141362905502319, '10.48550/arXiv.2404.17663'), (0.9072574377059937, '10.1162/qss_a_00112'), (0.8990287780761719, '10.1162/qss_a_00212')]</t>
+  </si>
+  <si>
+    <t>OpenAlex is a promising free alternative to proprietary bibliometric databases, offering comprehensive coverage and suitability for certain analyses, but it faces limitations in metadata accuracy and completeness.  
+DOI: 10.48550/arXiv.2406.15154 - This study highlights OpenAlex's growing importance as a free bibliometric database, noting its coverage of publication and document types, though it emphasizes variations in classification across databases.  
+DOI: 10.48550/arXiv.2404.17663 - The analysis concludes that OpenAlex is a superset of Scopus, particularly reliable for country-level analyses, but identifies issues with metadata accuracy and completeness that require further research.  
+Concluding statement: While OpenAlex shows potential as an inclusive and free bibliometric resource, addressing its metadata limitations is crucial for broader and more reliable application in scholarly analyses.</t>
+  </si>
+  <si>
+    <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
+  </si>
+  <si>
+    <t>[(0.927021861076355, '10.48550/arXiv.2406.15154'), (0.9202131628990173, '10.1162/qss_a_00112'), (0.901624321937561, '10.48550/arXiv.2404.17663'), (0.8967616558074951, '10.31222/osf.io/smxe5'), (0.8942318558692932, '10.1162/qss_a_00286')]</t>
+  </si>
+  <si>
+    <t>Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of scientific literature and accurate citation links, but it has weaknesses in underrepresenting certain disciplines and regions, and its proprietary nature limits accessibility.  
+DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, classifies publications differently, which can affect the distinction between research and non-research texts, impacting bibliometric analyses.  
+DOI: 10.1162/qss_a_00112 - The large-scale comparison emphasizes WoS's strength in comprehensive coverage and accurate citation links but notes the importance of flexible filters for literature selection, which WoS may lack compared to newer databases.  
+DOI: 10.48550/arXiv.2404.17663 - WoS is criticized for systematically underrepresenting certain disciplines and world regions, a limitation that has spurred the development of more inclusive alternatives like OpenAlex.  
+In conclusion, while WoS remains a cornerstone in bibliometric research due to its reliability and extensive coverage, its proprietary nature and biases in representation are significant drawbacks, prompting the exploration of more inclusive and accessible alternatives.</t>
+  </si>
+  <si>
+    <t>How is RAG used to improve question answering or information retrieval systems?</t>
+  </si>
+  <si>
+    <t>[(0.7515063881874084, '10.48550/arXiv.2109.05052'), (0.7495063543319702, '10.48550/arXiv.2406.13213'), (0.748664915561676, '10.6109/jkiice.2023.27.12.1489'), (0.7390381097793579, '10.1145/3626772.3657848'), (0.7377653121948242, '10.48550/arXiv.2312.10997')]</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing accuracy, reducing hallucinations, and enabling multi-hop reasoning.  
+DOI: 10.48550/arXiv.2109.05052 - This study addresses knowledge conflicts in question answering, where contextual information contradicts learned knowledge, leading to hallucinations. It proposes a method to mitigate over-reliance on parametric knowledge, improving out-of-distribution generalization by 4%-7%, which aligns with RAG's goal of reducing hallucinations by incorporating external knowledge.  
+DOI: 10.48550/arXiv.2406.13213 - Multi-Meta-RAG enhances RAG for multi-hop queries by using database filtering with LLM-extracted metadata, significantly improving performance on benchmarks. This demonstrates RAG's effectiveness in handling complex, multi-step reasoning tasks.  
+DOI: 10.6109/jkiice.2023.27.12.1489 - M-RAG introduces metadata retrieval-augmented generation for open-domain question answering, achieving up to 46% performance improvement by leveraging metadata and generative models like GPT-4, showcasing RAG's ability to enhance accuracy and source attribution.  
+DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, emphasizing that RAG can mitigate risks like hallucination while leveraging LLMs' strengths, positioning RAG as a critical tool for future IR systems.  
+DOI: 10.48550/arXiv.2312.10997 - A comprehensive survey on RAG highlights its role in addressing LLMs' limitations by integrating external knowledge, improving accuracy, and enabling continuous updates, underscoring its significance in advancing question answering and IR systems.  
+**Concluding Statement:** RAG’s ability to merge external knowledge with LLMs’ capabilities addresses critical challenges in question answering and information retrieval, such as hallucination and multi-hop reasoning, making it a cornerstone for improving system accuracy and reliability.</t>
+  </si>
+  <si>
+    <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
+  </si>
+  <si>
+    <t>[(0.9295099973678589, '10.1371/journal.pbio.1002542'), (0.8987975120544434, '10.1162/qss_a_00112'), (0.8793706893920898, '10.48550/arXiv.2406.15154'), (0.8763439059257507, '10.31222/osf.io/smxe5'), (0.861963152885437, '10.48550/arXiv.2404.17663')]</t>
+  </si>
+  <si>
+    <t>Summary answer: Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, document types, database coverage, and metadata accuracy.  
+DOI: 10.1371/journal.pbio.1002542 - This document highlights the challenges in normalizing citation metrics, emphasizing the need to account for variations across fields, publication age, document types, and database coverage, while also addressing issues in combining metrics for multi-authored papers and institutional assessments.  
+DOI: 10.1162/qss_a_00112 - A comparative analysis of major bibliographic databases (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) reveals significant differences in coverage, citation accuracy, and discipline-specific representation, underscoring the complexity of normalization efforts.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across databases, noting discrepancies in classification and coverage, particularly between proprietary and open-access platforms like OpenAlex, which impacts the reliability of bibliometric analyses.  
+DOI: 10.31222/osf.io/smxe5 - Focusing on Crossref, this research highlights improvements in open bibliographic metadata availability but identifies persistent gaps, particularly in publisher compliance, which affects the standardization of citation data.  
+DOI: 10.48550/arXiv.2404.17663 - While OpenAlex is positioned as a more inclusive alternative to traditional databases, its limitations in metadata accuracy and completeness necessitate further research to ensure its suitability for diverse bibliometric analyses.  
+Concluding statement: The challenges in normalizing citation metrics stem from inherent differences in citation cultures, database coverage, and metadata quality, requiring careful consideration of these factors to ensure fair and accurate comparisons across scientific fields.</t>
+  </si>
+  <si>
+    <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
+  </si>
+  <si>
+    <t>[(0.8310120105743408, '10.1371/journal.pbio.1002542'), (0.8288342952728271, '10.5281/ZENODO.13960973'), (0.8222244381904602, '10.48550/arXiv.2406.15154'), (0.8119209408760071, '10.1162/qss_a_00112'), (0.8085467219352722, '10.31222/osf.io/smxe5')]</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing data across multiple sources, and evaluating metadata completeness and accuracy.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which successfully identifies incorrectly assigned papers and can be generalized to other data types.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) highlights differences in coverage, completeness, and accuracy of citation links, emphasizing the need for flexible filters to improve dataset quality.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, revealing significant variations in classification and coverage, which can aid in error detection and correction.  
+**Concluding Statement:** These methods collectively contribute to improving the quality and reliability of bibliographic datasets by identifying inconsistencies, missing data, and classification errors, thereby enhancing the accuracy of bibliometric analyses.</t>
+  </si>
+  <si>
+    <t>tell me about how RAG works.</t>
+  </si>
+  <si>
+    <t>[(0.8306297659873962, '10.1371/journal.pbio.1002542'), (0.8106204867362976, '10.48550/arXiv.2404.17663'), (0.8084627389907837, '10.31222/osf.io/smxe5'), (0.798947274684906, '10.1162/qss_a_00212'), (0.7941492199897766, '10.5860/crl.86.1.101')]</t>
+  </si>
+  <si>
+    <t>I cannot provide an answer as the provided context does not contain any information about how RAG (Retrieval-Augmented Generation) works. The context instead focuses on citation metrics, bibliometric databases, metadata quality, and funding data availability.</t>
+  </si>
+  <si>
+    <t>Summary answer: The study by Smith et al. (2022) and the article by Johnson et al. (2023) are the primary sources that examined the abstract in metadata.
+DOI: 10.31222/osf.io/smxe5 - Smith et al. (2022) provide an overview of the availability of six metadata elements, including abstracts, in Crossref, highlighting improvements over time but also noting the need for further efforts by publishers to ensure full openness of bibliographic metadata.
+DOI: 10.5860/crl.86.1.101 - Johnson et al. (2023) explore metadata quality issues, including the role of abstracts, by examining how metadata reflects cultural meanings and the tensions between sociocultural representations, resource constraints, and standardized systems.
+Concluding statement: While the other studies (DOI: 10.48550/arXiv.2406.15154, DOI: 10.1162/qss_a_00112, and DOI: 10.1371/journal.pbio.1002542) focus on bibliographic data sources, citation metrics, and document types, they do not specifically examine the abstract in metadata, making the studies by Smith et al. (2022) and Johnson et al. (2023) the most relevant to the query.</t>
   </si>
   <si>
     <t>Summary answer: Several studies have examined citations, focusing on their completeness, accuracy, and normalization across different bibliographic databases.  
 DOI: 10.1162/qss_a_00112 - This study compares five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and specifically analyzes differences in the completeness and accuracy of citation links, highlighting the strengths and weaknesses of each source.  
-DOI: 10.1371/journal.pbio.1002542 - This primer discusses the challenges and approaches to normalizing citation metrics, addressing issues such as field differences, publication age, and document type, and emphasizes the need for careful consideration when using citation metrics.  
-Concluding statement: While the first study directly examines citation links across databases, the second focuses on the methodological aspects of citation metric normalization, collectively contributing to a deeper understanding of citation analysis in academic research.</t>
-  </si>
-  <si>
-    <t>Tell me about OpenAlex.</t>
+DOI: 10.1371/journal.pbio.1002542 - The paper discusses the challenges of normalizing citation metrics to account for variations across fields, publication age, document types, and databases, emphasizing the need for careful consideration of underlying assumptions in citation metric calculations.  
+Concluding statement: While the first study directly assesses citation links across databases, the second focuses on the methodological challenges of interpreting and normalizing citation metrics, collectively contributing to a deeper understanding of citation analysis in academic research.</t>
+  </si>
+  <si>
+    <t>OpenAlex is a promising, inclusive bibliometric database that offers a reliable alternative to traditional databases like Scopus and Web of Science, particularly for certain types of analyses, but it still faces limitations in metadata accuracy and completeness.  
+DOI: 10.48550/arXiv.2404.17663 - An analysis comparing OpenAlex to Scopus reveals that OpenAlex is a superset of Scopus, making it a viable alternative for some analyses, especially at the country level, though issues with metadata accuracy and completeness require further research to fully address its limitations.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Scopus and Crossref, highlights the importance of comprehensive coverage and flexible filtering in bibliometric databases, which aligns with OpenAlex's inclusive approach.  
+Concluding statement: While OpenAlex shows significant potential as an inclusive and comprehensive bibliometric database, addressing its metadata limitations will be crucial for its broader adoption and reliability in diverse research contexts.</t>
+  </si>
+  <si>
+    <t>Crossref is a key provider of open bibliographic metadata, offering improved availability of metadata elements over time, though challenges remain in ensuring full openness and accuracy.  
+DOI: 10.31222/osf.io/smxe5 - Crossref has seen improvements in the availability of metadata elements like reference lists, abstracts, and ORCIDs, particularly for journal articles, but many publishers still need to enhance efforts for full openness.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths in coverage and citation accuracy, though it is one of several tools with varying strengths and weaknesses.  
+Concluding statement: Crossref plays a vital role in promoting open bibliographic metadata, yet ongoing efforts are necessary to address gaps in completeness, accuracy, and publisher participation to maximize its utility in scholarly research.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, highlighting differences in completeness, accuracy, and inclusivity across platforms.  
+DOI: 10.48550/arXiv.2409.10633 - This study assesses the linguistic coverage of OpenAlex, comparing its metadata accuracy and completeness with Web of Science (WoS). It finds that OpenAlex offers more balanced linguistic coverage but notes inaccuracies in language metadata, overestimating English and underestimating other languages.  
+DOI: 10.1162/qss_a_00286 - This paper evaluates the completeness of publication metadata, including language, in eight free-access scholarly databases. It concludes that third-party databases like OpenAlex and Dimensions have higher metadata quality, while academic search engines like Google Scholar lack completeness in descriptive data.  
+DOI: 10.31222/osf.io/smxe5 - This study examines the availability of open bibliographic metadata in Crossref, including language information, and highlights improvements over time but notes that publishers need to enhance openness for full metadata availability.  
+**Concluding statement:** These studies collectively emphasize the importance of evaluating linguistic coverage and metadata quality in scholarly databases, revealing strengths and weaknesses across platforms and underscoring the need for improved accuracy and inclusivity in language-related data.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref and comparisons with proprietary databases like Scopus and Web of Science.  
+DOI: 10.1162/qss_a_00212 - This paper analyzes the open availability of funding data in Crossref, specifically for COVID-19 research, and compares it with funding data in Scopus and Web of Science, highlighting limited coverage and quality issues in Crossref and Scopus.  
+DOI: 10.31222/osf.io/smxe5 - The study evaluates the availability of funding information as part of bibliographic metadata in Crossref, noting improvements over time but emphasizing the need for further efforts by publishers to achieve full openness.  
+DOI: 10.1162/qss_a_00112 - While primarily a large-scale comparison of bibliographic data sources, this paper touches on the completeness and accuracy of metadata, including funding information, across databases like Scopus, Web of Science, and Crossref.  
+Concluding statement: These papers collectively highlight the importance of improving funding metadata availability and quality in open and proprietary scholarly databases, with a particular focus on Crossref as a key source of open bibliographic data.</t>
+  </si>
+  <si>
+    <t>Retrieval-Augmented Generation (RAG) is a widely discussed technique in large language models (LLMs) to enhance accuracy, mitigate hallucination, and improve performance in knowledge-intensive tasks.  
+DOI: 10.48550/arXiv.2312.10997 - This survey paper provides a comprehensive overview of RAG paradigms, including Naive RAG, Advanced RAG, and Modular RAG, while examining the retrieval, generation, and augmentation techniques that form the foundation of RAG frameworks.  
+DOI: 10.1609/aaai.v38i16.29728 - The paper introduces the Retrieval-Augmented Generation Benchmark (RGB) to evaluate LLMs' performance in RAG, highlighting challenges in negative rejection, information integration, and counterfactual robustness.  
+DOI: 10.48550/arXiv.2406.13213 - This work proposes Multi-Meta-RAG, a method to improve RAG for multi-hop queries by using database filtering with LLM-extracted metadata, demonstrating significant improvements on the MultiHop-RAG benchmark.  
+DOI: 10.1145/3626772.3657848 - While not exclusively focused on RAG, this perspective paper discusses the role of LLMs in information retrieval, suggesting that future LLMs should learn to interact with search engines to enhance their utility.  
+DOI: 10.1007/978-3-031-88708-6_3 - This study investigates the relationship between relevance and utility in RAG contexts, finding a small positive correlation that decreases with larger context sizes and emphasizing the importance of effective retrieval models.  
+In conclusion, these papers collectively highlight the potential and challenges of RAG in LLMs, offering advancements in benchmarking, multi-hop query handling, and understanding the interplay between retrieval and generation.</t>
+  </si>
+  <si>
+    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata and supporting the traceability of research outputs, though its coverage and data quality require ongoing improvements.  
+DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improvements noted in the availability of elements like reference lists, abstracts, and ORCIDs, though further efforts from publishers are needed to achieve full openness.  
+DOI: 10.1162/qss_a_00212 - Crossref facilitates the tracking of funding data for research publications, including COVID-19 studies, but its coverage and data quality are limited compared to proprietary databases like Scopus and Web of Science.  
+DOI: 10.1162/qss_a_00112 - Crossref is highlighted in a large-scale comparison of bibliographic data sources, emphasizing its role in comprehensive literature coverage and the need for flexible filtering options to enhance its utility.  
+In conclusion, Crossref is a vital infrastructure for open scholarly metadata, enabling transparency and traceability in research, but its effectiveness depends on continued enhancements in data completeness and publisher participation.</t>
+  </si>
+  <si>
+    <t>Summary answer: OpenAlex is a promising, free bibliometric database with broad coverage and potential as an alternative to proprietary databases, but it faces limitations in metadata accuracy and completeness.
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other databases like Scopus, Web of Science, and PubMed, highlighting differences in publication and document type classifications. OpenAlex is noted for its increasing importance as a free alternative, though variations in typologies and document classification across databases are observed.  
+DOI: 10.48550/arXiv.2404.17663 - A critical analysis of OpenAlex in comparison to Scopus reveals that OpenAlex is a superset of Scopus, particularly useful for country-level analyses. However, issues with metadata accuracy and completeness suggest the need for further research to address its limitations.  
+Concluding statement: While OpenAlex offers significant advantages as an inclusive and free bibliometric resource, its limitations in metadata quality necessitate careful consideration and further development to ensure its reliability across diverse analytical contexts.</t>
+  </si>
+  <si>
+    <t>Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of scientific literature and accurate citation links, but it has weaknesses in underrepresenting certain disciplines and world regions, and its proprietary nature limits accessibility.  
+DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, classifies publications differently, which can affect the distinction between research and non-research texts, impacting bibliometric analysis.  
+DOI: 10.1162/qss_a_00112 - The large-scale comparison emphasizes WoS's strength in comprehensive coverage and accurate citation links but notes the importance of flexible filters for literature selection, which may be limited in WoS due to its proprietary structure.  
+DOI: 10.48550/arXiv.2404.17663 - WoS is criticized for systematically underrepresenting certain disciplines and world regions, a limitation that has spurred the development of more inclusive alternatives like OpenAlex.  
+In conclusion, while WoS remains a cornerstone in bibliometric research due to its extensive coverage and reliable citation data, its proprietary nature and biases in representation highlight the need for complementary or alternative databases to address these shortcomings.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing accuracy, reducing hallucinations, and enabling multi-hop reasoning.  
+DOI: 10.48550/arXiv.2109.05052 - This study addresses knowledge conflicts in question answering, where contextual information contradicts learned knowledge, leading to hallucinations. It proposes a method to mitigate over-reliance on parametric knowledge, improving generalization and reducing hallucinations by 4%-7%.  
+DOI: 10.48550/arXiv.2406.13213 - The Multi-Meta-RAG method enhances RAG for multi-hop queries by using database filtering with LLM-extracted metadata, significantly improving performance on the MultiHop-RAG benchmark.  
+DOI: 10.6109/jkiice.2023.27.12.1489 - M-RAG introduces metadata retrieval-augmented generation for open-domain question answering, leveraging embeddings and generative models like GPT-4 to improve answer accuracy by up to 46% compared to traditional RAG methods.  
+DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, emphasizing that LLMs will not replace search engines but will need to interact with them to enhance user experience, highlighting opportunities and challenges in integrating LLMs with IR systems.  
+DOI: 10.48550/arXiv.2312.10997 - This survey reviews RAG paradigms, detailing advancements in retrieval, generation, and augmentation techniques. It highlights RAG's ability to address LLM limitations like hallucination and outdated knowledge, while outlining future research directions.  
+**Concluding Statement:** RAG significantly enhances question answering and information retrieval by integrating external knowledge, reducing hallucinations, and enabling complex reasoning, as evidenced by advancements in methods like Multi-Meta-RAG and M-RAG, and its potential to transform future IR systems.</t>
+  </si>
+  <si>
+    <t>Summary answer: Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, document types, database coverage, and metadata accuracy.  
+DOI: 10.1371/journal.pbio.1002542 - This study highlights the challenges in normalizing citation metrics, emphasizing the need to account for variations across fields, publication age, document types, and database coverage, while also addressing issues in combining metrics for multi-authored papers and institutional assessments.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic databases (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) reveals significant differences in coverage, citation accuracy, and discipline-specific representation, underscoring the complexity of normalization efforts.  
+DOI: 10.48550/arXiv.2406.15154 - This analysis of OpenAlex, Scopus, Web of Science, PubMed, and Semantic Scholar demonstrates that document type classifications and coverage vary widely across databases, complicating the standardization of citation metrics.  
+DOI: 10.31222/osf.io/smxe5 - The study on Crossref’s open bibliographic metadata highlights inconsistencies in metadata availability, which further challenges the normalization of citation metrics across fields.  
+DOI: 10.48550/arXiv.2404.17663 - While OpenAlex is shown to be a more inclusive alternative to traditional databases like Scopus, its limitations in metadata accuracy and completeness necessitate careful consideration in bibliometric analyses, particularly for cross-field normalization.  
+Concluding statement: The variability in citation practices, document classifications, and database coverage across scientific fields, coupled with metadata inconsistencies, makes normalizing citation metrics a complex and ongoing challenge that requires further research and standardized approaches.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing data across multiple sources, and evaluating metadata completeness and accuracy.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which can identify incorrectly assigned articles and improve data quality.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) highlights differences in coverage, completeness, and accuracy of citation links, providing insights into error detection through cross-source validation.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across databases (OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar), revealing discrepancies in classification that can aid in identifying and correcting errors in bibliographic datasets.  
+**Concluding Statement:** Error detection and correction in bibliographic datasets rely on methodologies such as pattern analysis, cross-database comparisons, and metadata completeness assessments, as demonstrated by the studies above. These approaches collectively contribute to improving the reliability and accuracy of bibliographic data.</t>
+  </si>
+  <si>
+    <t>I cannot provide an answer as the provided context does not contain information about how RAG (Retrieval-Augmented Generation) works.</t>
+  </si>
+  <si>
+    <t>Summary answer: The study by Smith et al. (2022) and the article by Johnson et al. (2023) examined the availability and quality of abstracts in metadata, while the other studies focused on different aspects of bibliographic metadata.
+DOI: 10.31222/osf.io/smxe5 - Smith et al. (2022) analyzed the availability of six metadata elements, including abstracts, in Crossref, finding improvements over time but noting that many publishers still need to enhance openness.  
+DOI: 10.5860/crl.86.1.101 - Johnson et al. (2023) explored metadata quality issues, including the role of abstracts in reflecting cultural meanings and their impact on discovery and access.  
+Concluding statement: While multiple studies addressed bibliographic metadata, only Smith et al. (2022) and Johnson et al. (2023) specifically examined abstracts in their analyses, highlighting their importance in metadata availability and quality.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several studies have examined citations, focusing on their accuracy, completeness, and normalization across different bibliographic databases.  
+DOI: 10.1162/qss_a_00112 - This study compares five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and specifically analyzes the completeness and accuracy of citation links, highlighting differences in coverage and reliability across these platforms.  
+DOI: 10.1371/journal.pbio.1002542 - The study discusses the challenges and approaches to normalizing citation metrics, addressing issues such as field differences, publication age, and document type, while emphasizing the need for careful consideration of underlying assumptions in citation analysis.  
+Concluding statement: These studies collectively underscore the importance of critically evaluating citation data across different databases and methodologies to ensure robust bibliometric analysis.</t>
+  </si>
+  <si>
+    <t>OpenAlex is an emerging, inclusive bibliometric database that offers a reliable alternative to traditional databases like Scopus and Web of Science, particularly for certain types of analyses, but it still faces limitations in metadata accuracy and completeness.  
+DOI: 10.48550/arXiv.2404.17663 - An analysis comparing OpenAlex to Scopus reveals that OpenAlex is a superset of Scopus, making it suitable for some analyses, especially at the country level, though issues with metadata accuracy and completeness necessitate further research to fully address its limitations.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Scopus and Crossref, highlights the importance of comprehensive coverage and flexible filtering in bibliometric databases, which aligns with OpenAlex's inclusive approach.  
+Concluding statement: While OpenAlex shows promise as a more inclusive and comprehensive bibliometric database, addressing its metadata limitations will be crucial for its broader adoption and reliability in diverse research contexts.</t>
+  </si>
+  <si>
+    <t>Crossref is a key provider of open bibliographic metadata, offering improved availability of metadata elements over time, though challenges remain in achieving full openness and ensuring metadata quality across diverse cultural contexts.  
+DOI: 10.31222/osf.io/smxe5 - Crossref has seen improvements in the availability of metadata elements such as reference lists, abstracts, and ORCIDs, particularly for journal articles, but many publishers still need to enhance efforts for full openness.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths in coverage and citation links, emphasizing the need for comprehensive and flexible data sources in scholarly research.  
+DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness in Crossref and other systems are influenced by cultural representations and resource constraints, requiring careful consideration to ensure inclusivity and accuracy.  
+Concluding statement: Crossref plays a vital role in promoting open bibliographic metadata, yet ongoing efforts are necessary to address challenges in metadata completeness, accuracy, and cultural representation to maximize its utility in scholarly research.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on completeness, accuracy, and comparisons across platforms.  
+DOI: 10.48550/arXiv.2409.10633 - This study assesses the linguistic coverage of OpenAlex by comparing its language metadata with Web of Science (WoS) and manually validating a sample of 6,836 articles. It finds that OpenAlex offers more balanced linguistic coverage than WoS but notes inaccuracies in language metadata, overestimating English and underestimating other languages.  
+DOI: 10.1162/qss_a_00286 - This paper evaluates the completeness of publication metadata, including language, in eight free-access scholarly databases. It highlights that academic search engines (e.g., Google Scholar) have lower metadata completeness compared to third-party databases (e.g., Dimensions, OpenAlex), which exhibit higher quality but face challenges in integrating diverse sources.  
+DOI: 10.31222/osf.io/smxe5 - This study examines the availability of open bibliographic metadata in Crossref, including language information. It shows improvements over time but notes that publishers need to enhance efforts for full openness of metadata.  
+**Concluding statement:** These studies collectively emphasize the importance of accurate and comprehensive language-related metadata in scholarly databases, highlighting both progress and ongoing challenges in achieving inclusive linguistic coverage.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref and its comparison with proprietary databases like Scopus and Web of Science.  
+DOI: 10.1162/qss_a_00212 - This paper analyzes the open availability of funding data in Crossref, especially for COVID-19 research, and compares it with Scopus and Web of Science, highlighting limited coverage and quality issues in funding metadata.  
+DOI: 10.31222/osf.io/smxe5 - The study evaluates the availability of funding information in Crossref as part of broader bibliographic metadata, noting improvements over time but emphasizing the need for further efforts by publishers to ensure full openness.  
+DOI: 10.1162/qss_a_00112 - While primarily a large-scale comparison of bibliographic data sources, this paper touches on the completeness and accuracy of metadata, including funding information, across platforms like Scopus, Web of Science, and Crossref.  
+Concluding statement: These papers collectively highlight the challenges and opportunities in improving the availability and quality of funding metadata in scholarly databases, with a particular focus on Crossref as an open alternative to proprietary systems.</t>
+  </si>
+  <si>
+    <t>Retrieval-Augmented Generation (RAG) is discussed in several papers as a method to enhance large language models (LLMs) by integrating external knowledge, improving accuracy, and addressing challenges like hallucination.  
+DOI: 10.48550/arXiv.2312.10997 - This survey provides a comprehensive overview of RAG paradigms, including Naive RAG, Advanced RAG, and Modular RAG, and examines the tripartite foundation of RAG frameworks: retrieval, generation, and augmentation techniques, while also introducing an evaluation framework and highlighting future research directions.  
+DOI: 10.1609/aaai.v38i16.29728 - This paper benchmarks RAG's impact on LLMs by evaluating six models on the Retrieval-Augmented Generation Benchmark (RGB), identifying strengths in noise robustness but weaknesses in negative rejection, information integration, and handling false information.  
+DOI: 10.48550/arXiv.2406.13213 - Introducing Multi-Meta-RAG, this study improves RAG for multi-hop queries by using LLM-extracted metadata for database filtering, significantly enhancing performance on the MultiHop-RAG benchmark.  
+DOI: 10.1145/3626772.3657848 - While not exclusively focused on RAG, this perspective paper discusses the role of LLMs in information retrieval (IR), suggesting that future LLMs should learn to interact with search engines rather than replace them.  
+DOI: 10.1007/978-3-031-88708-6_3 - This work investigates the relationship between relevance and utility in RAG contexts, finding a small positive correlation that diminishes with larger context sizes and emphasizing the importance of effective retrieval models for downstream performance.  
+In conclusion, these papers collectively highlight RAG's potential to address LLM limitations, its current challenges, and avenues for improvement, underscoring its significance in advancing LLM applications.</t>
+  </si>
+  <si>
+    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata and supporting the traceability of research outputs, though its coverage and data quality require ongoing improvements.  
+DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improvements noted in the availability of elements like reference lists, abstracts, and ORCIDs, though full openness remains a challenge for many publishers.  
+DOI: 10.1162/qss_a_00212 - Crossref facilitates the traceability of funding in research, particularly for COVID-19 studies, but its funding data coverage is limited compared to proprietary databases like Scopus and Web of Science.  
+DOI: 10.1162/qss_a_00112 - Crossref is one of several multidisciplinary bibliographic data sources, offering comprehensive coverage of scientific literature, though its strengths and weaknesses vary compared to platforms like Scopus, Web of Science, and Dimensions.  
+In conclusion, Crossref is a vital component of the scholarly research ecosystem, enhancing metadata openness and research traceability, but continued efforts are needed to address gaps in coverage and data quality.</t>
+  </si>
+  <si>
+    <t>Summary answer: OpenAlex is a promising, free alternative to proprietary bibliometric databases, offering comprehensive coverage and inclusivity, but it faces limitations in metadata accuracy and completeness.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other databases like Scopus, Web of Science, and PubMed, highlighting that OpenAlex provides a free alternative for bibliometric analyses, though publication and document typologies vary across databases, affecting research relevance.  
+DOI: 10.48550/arXiv.2404.17663 - A critical analysis reveals OpenAlex is a superset of Scopus, particularly reliable for country-level analyses, but issues with metadata accuracy and completeness necessitate further research to address its limitations.  
+Concluding statement: While OpenAlex offers significant advantages as an inclusive and free resource, its limitations in metadata quality require careful consideration and further development to ensure its reliability across diverse bibliometric analyses.</t>
+  </si>
+  <si>
+    <t>Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of scientific literature and accurate citation links, but it faces weaknesses such as underrepresentation of certain disciplines and regions, and limited flexibility in filtering options.  
+DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, classifies publications differently, which can impact the distinction between research and non-research texts, affecting bibliometric analysis.  
+DOI: 10.1162/qss_a_00112 - The large-scale comparison emphasizes WoS's strengths in coverage and citation accuracy but underscores the need for flexible filtering tools to enhance its utility in literature selection.  
+DOI: 10.48550/arXiv.2404.17663 - While not directly comparing WoS, this study notes that traditional databases like WoS systematically underrepresent certain disciplines and regions, a limitation addressed by newer, inclusive databases like OpenAlex.  
+In conclusion, WoS remains a valuable resource for bibliometric analysis due to its comprehensive coverage and reliable citation data, but its limitations in representation and flexibility highlight the need for complementary or alternative databases in certain contexts.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing accuracy, reducing hallucinations, and enabling multi-hop reasoning.  
+DOI: 10.48550/arXiv.2109.05052 - This study addresses knowledge conflicts in question answering, where contextual information contradicts learned knowledge, leading to hallucinations. It proposes a method to mitigate over-reliance on parametric knowledge, improving out-of-distribution generalization by 4%-7%, highlighting the importance of evaluating model tendencies to hallucinate.  
+DOI: 10.48550/arXiv.2406.13213 - Multi-Meta-RAG introduces database filtering with LLM-extracted metadata to enhance RAG for multi-hop queries, significantly improving performance on benchmarks by better selecting relevant documents from diverse sources.  
+DOI: 10.6109/jkiice.2023.27.12.1489 - M-RAG utilizes metadata and generative models like GPT-4 to improve open-domain question answering, achieving up to 46% performance improvement by incorporating source attribution and context understanding.  
+DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, arguing that LLMs will not replace search engines but will need to interact with them, and outlines future research directions to address challenges like hallucination.  
+DOI: 10.48550/arXiv.2312.10997 - A comprehensive survey of RAG highlights its ability to merge LLMs' intrinsic knowledge with external databases, reducing hallucinations and enabling continuous knowledge updates, while detailing advancements and challenges in RAG frameworks.  
+**Concluding Statement:** RAG enhances question answering and information retrieval by leveraging external knowledge, addressing challenges like hallucinations, and enabling complex reasoning, as evidenced by advancements in methods like Multi-Meta-RAG and M-RAG, and supported by comprehensive surveys and perspective analyses.</t>
+  </si>
+  <si>
+    <t>Summary answer: Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, document types, database coverage, and metadata accuracy.  
+DOI: 10.1371/journal.pbio.1002542 - This document highlights the challenges in normalizing citation metrics, emphasizing the need to account for variations across fields, publication age, document types, and database coverage, while also addressing issues in combining metrics for multi-authored papers and institutional assessments.  
+DOI: 10.1162/qss_a_00112 - A comparative analysis of bibliographic databases (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) reveals significant differences in coverage, citation accuracy, and discipline-specific representation, underscoring the complexity of normalization efforts.  
+DOI: 10.48550/arXiv.2406.15154 - This study demonstrates that publication and document typologies vary across databases (OpenAlex, Scopus, Web of Science, Semantic Scholar, PubMed), complicating the standardization of citation metrics due to inconsistent classification criteria.  
+DOI: 10.31222/osf.io/smxe5 - The analysis of Crossref metadata availability shows improvements in openness but highlights persistent gaps in metadata completeness, which can affect the reliability of citation metrics across fields.  
+DOI: 10.48550/arXiv.2404.17663 - While OpenAlex is positioned as a more inclusive alternative to Scopus, its metadata accuracy and completeness issues suggest that further research is needed to ensure its suitability for normalized bibliometric analyses.  
+Concluding statement: The challenges in normalizing citation metrics stem from inherent differences in citation cultures, database coverage, and metadata quality, necessitating careful consideration of these factors to ensure fair and accurate cross-field comparisons.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing data across multiple sources, and evaluating metadata completeness and accuracy.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which can identify incorrectly assigned articles and improve data quality.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) highlights differences in coverage, completeness, and accuracy of citation links, providing insights into error detection through cross-source validation.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across databases (OpenAlex, Scopus, Web of Science, Semantic Scholar, PubMed), revealing inconsistencies in classification that can help identify errors in bibliographic datasets.  
+**Concluding statement:** Error detection and correction in bibliographic datasets rely on methods such as pattern analysis, cross-database comparisons, and metadata completeness assessments, which collectively enhance data accuracy and reliability.</t>
+  </si>
+  <si>
+    <t>Summary answer: The provided context does not contain information about how RAG (Retrieval-Augmented Generation) works, so I cannot provide an answer based on the given documents.
+Since the context does not provide any information related to RAG, I am unable to fulfill the request. The documents focus on citation metrics, bibliometric databases, metadata quality, and funding data availability, which are unrelated to the topic of RAG.</t>
+  </si>
+  <si>
+    <t>Summary answer: The study by Smith et al. (2022) and the article by Johnson et al. (2023) examined the availability and quality of abstracts in metadata, while the other studies did not focus on this specific aspect.
+DOI: 10.31222/osf.io/smxe5 - Smith et al. (2022) analyzed the availability of six metadata elements, including abstracts, in Crossref, finding improvements over time but noting that many publishers still need to enhance openness.  
+DOI: 10.5860/crl.86.1.101 - Johnson et al. (2023) explored metadata quality issues, including how abstracts and other metadata elements reflect cultural meanings and impact visibility, highlighting tensions between standardization and cultural representation.  
+Concluding statement: While only two studies explicitly examined abstracts in metadata, their findings underscore the importance of improving abstract availability and addressing quality issues to enhance metadata openness and cultural sensitivity.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several studies have examined citations, focusing on their completeness, accuracy, and normalization across different bibliographic databases.  
+DOI: 10.1162/qss_a_00112 - This study compares five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and specifically analyzes differences in the completeness and accuracy of citation links, highlighting the strengths and weaknesses of each source.  
+DOI: 10.1371/journal.pbio.1002542 - The study discusses the challenges and approaches to normalizing citation metrics, considering factors like scientific fields, publication age, and document type, while emphasizing the need for careful consideration of underlying assumptions.  
+Concluding statement: These studies collectively underscore the importance of understanding citation data across various databases and the need for normalization and accuracy in citation metrics for robust bibliometric analysis.</t>
+  </si>
+  <si>
+    <t>Summary answer: OpenAlex is an emerging inclusive bibliometric database that offers a reliable alternative to traditional databases like Scopus and Web of Science, particularly for certain types of analyses, but requires further research to address its limitations in metadata accuracy and completeness.
+DOI: 10.48550/arXiv.2404.17663 - An analysis comparing OpenAlex to Scopus reveals that OpenAlex is a superset of Scopus, making it a suitable alternative for some bibliometric analyses, especially at the country level, although issues with metadata accuracy and completeness necessitate further research to fully leverage its potential.
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic, highlights the importance of comprehensive coverage and flexible filtering in bibliometric databases, providing context for OpenAlex's role as an emerging inclusive alternative.
+Concluding statement: While OpenAlex shows promise as a more inclusive and comprehensive bibliometric database, its limitations in metadata accuracy and completeness must be addressed through further research to ensure its reliable use across a wider range of analyses, complementing the strengths and weaknesses of existing databases like Scopus and Web of Science.</t>
+  </si>
+  <si>
+    <t>Crossref is a significant source of open bibliographic metadata, playing a crucial role in the availability and accessibility of scholarly publication data, though it faces challenges in metadata completeness and openness.  
+DOI: 10.31222/osf.io/smxe5 - Crossref is highlighted as a key provider of open bibliographic metadata, with improvements noted in the availability of elements like reference lists, abstracts, and ORCIDs, particularly for journal articles, though further efforts from publishers are needed to achieve full openness.  
+DOI: 10.1162/qss_a_00112 - In a large-scale comparison of bibliographic data sources, Crossref is evaluated alongside Scopus, Web of Science, Dimensions, and Microsoft Academic, with the analysis emphasizing its comprehensive coverage and the importance of flexible filters for literature selection.  
+Concluding statement: Crossref’s role in promoting open access to bibliographic metadata is well-established, yet ongoing efforts are required to enhance metadata completeness and address publisher-specific challenges to fully realize its potential as a comprehensive scholarly resource.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on completeness, accuracy, and comparisons across platforms.  
+DOI: 10.48550/arXiv.2409.10633 - This study assesses the linguistic coverage of OpenAlex, comparing its metadata accuracy and completeness with Web of Science (WoS). It finds that OpenAlex offers more balanced linguistic coverage but notes inaccuracies in language metadata, particularly overestimating English and underestimating other languages.  
+DOI: 10.1162/qss_a_00286 - This paper evaluates the completeness of publication metadata, including language, in eight free-access scholarly databases. It highlights that third-party databases (e.g., Dimensions, OpenAlex) have higher metadata quality compared to academic search engines (e.g., Google Scholar, Microsoft Academic).  
+DOI: 10.31222/osf.io/smxe5 - This study examines the availability of open bibliographic metadata in Crossref, including language information, and notes improvements over time but identifies gaps in full openness.  
+**Concluding statement:** These studies collectively emphasize the importance of accurate and comprehensive language-related metadata in scholarly databases, with OpenAlex and third-party platforms showing promise but requiring further refinement for reliable linguistic coverage.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, and Web of Science.  
+DOI: 10.1162/qss_a_00212 - This paper analyzes the open availability of funding data in Crossref, especially for COVID-19 research, and compares it with Scopus and Web of Science, highlighting limited coverage and quality issues in funding metadata.  
+DOI: 10.31222/osf.io/smxe5 - The study evaluates the availability of funding information in Crossref as part of broader bibliographic metadata, noting improvements over time but emphasizing the need for further efforts by publishers to ensure full openness.  
+DOI: 10.1162/qss_a_00112 - This large-scale comparison of bibliographic databases, including Scopus, Web of Science, and Crossref, discusses differences in coverage, completeness, and accuracy, which indirectly relates to the availability and reliability of funding metadata.  
+Concluding statement: These papers collectively highlight the challenges and opportunities in accessing and analyzing funding metadata across scholarly databases, underscoring the need for improved data quality and openness.</t>
+  </si>
+  <si>
+    <t>Retrieval-Augmented Generation (RAG) is a key technique for enhancing large language models (LLMs) by integrating external knowledge, and several papers explore its applications, challenges, and advancements.  
+DOI: 10.48550/arXiv.2312.10997 - This survey provides a comprehensive overview of RAG paradigms, including Naive, Advanced, and Modular RAG, highlighting their tripartite foundation (retrieval, generation, augmentation) and discussing state-of-the-art technologies, evaluation frameworks, and future research directions.  
+DOI: 10.1609/aaai.v38i16.29728 - This paper introduces the Retrieval-Augmented Generation Benchmark (RGB) to evaluate LLMs' performance in RAG across four fundamental abilities (noise robustness, negative rejection, information integration, counterfactual robustness), revealing challenges in applying RAG effectively.  
+DOI: 10.48550/arXiv.2406.13213 - The study proposes Multi-Meta-RAG, a method to improve RAG for multi-hop queries by using LLM-extracted metadata for database filtering, demonstrating significant improvements on the MultiHop-RAG benchmark.  
+DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval (IR), arguing that LLMs will not replace search engines but will need to learn to interact with them, and outlines future research directions.  
+DOI: 10.1007/978-3-031-88708-6_3 - The research investigates the relationship between relevance and utility in RAG contexts, finding a small positive correlation that decreases with larger context sizes and emphasizing the importance of effective retrieval models for downstream performance.  
+In conclusion, these papers collectively advance the understanding of RAG in LLMs, addressing its potential, limitations, and future directions across various applications and evaluation frameworks.</t>
+  </si>
+  <si>
+    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata and supporting the traceability of research outputs, though its coverage and data quality require ongoing improvements.  
+DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improvements over time in the availability of elements like reference lists, abstracts, and funding information, though full openness remains a challenge for many publishers.  
+DOI: 10.1162/qss_a_00212 - Crossref facilitates the traceability of research funding by providing open funding data, particularly for COVID-19 research, but its coverage and data quality are limited compared to proprietary databases like Scopus and Web of Science.  
+DOI: 10.1162/qss_a_00112 - Crossref is a multidisciplinary bibliographic data source that, while comprehensive, exhibits differences in coverage and citation accuracy when compared to other databases like Scopus, Web of Science, and Dimensions, highlighting the need for flexible filtering tools.  
+Concluding statement: Crossref is a vital component of the scholarly research ecosystem, promoting open access to bibliographic metadata and supporting research traceability, but continued efforts are needed to enhance its coverage, data quality, and integration with other databases.</t>
+  </si>
+  <si>
+    <t>Summary answer: OpenAlex is a promising free alternative to proprietary bibliometric databases, offering comprehensive coverage and inclusivity, but it faces limitations in metadata accuracy and completeness.
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other databases like Scopus, Web of Science, and PubMed, highlighting that OpenAlex provides a wide range of publication and document types, making it a valuable resource for bibliometric analyses, especially in libraries and universities.
+DOI: 10.48550/arXiv.2404.17663 - A critical analysis reveals that OpenAlex is a superset of Scopus, particularly useful for country-level analyses, but it requires further research to address issues of metadata accuracy and completeness, which are essential for its broader application in bibliometric studies.
+Concluding statement: While OpenAlex shows great potential as an inclusive and free bibliometric database, addressing its current limitations in metadata quality will be crucial for its widespread adoption and reliability in diverse research contexts.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation indexing, but it faces weaknesses such as limited inclusivity of certain disciplines, regions, and document types, as well as its proprietary nature and cost.  
+DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, classifies publications differently, which can affect the distinction between research and non-research texts, impacting bibliometric analyses. It also notes that WoS’s typologies differ significantly from other databases like OpenAlex, Scopus, and PubMed.  
+DOI: 10.1162/qss_a_00112 - The large-scale comparison emphasizes WoS’s strengths in coverage and citation accuracy but points out limitations in discipline-specific representation and the need for flexible filters to refine literature selections, which WoS may lack compared to newer databases.  
+DOI: 10.48550/arXiv.2404.17663 - This analysis underscores WoS’s underrepresentation of certain disciplines and regions, a weakness addressed by emerging inclusive databases like OpenAlex, which offer broader coverage but may lack the metadata accuracy and completeness of established databases like WoS.  
+**Concluding Statement:** While WoS remains a cornerstone for bibliometric research due to its reliability and comprehensive citation data, its limitations in inclusivity and accessibility are increasingly being addressed by alternative databases, highlighting the need for a balanced approach when selecting data sources for scholarly analysis.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing accuracy, reducing hallucinations, and enabling multi-hop reasoning.  
+DOI: 10.48550/arXiv.2109.05052 - This study addresses knowledge conflicts in question answering, highlighting models' over-reliance on parametric knowledge, which leads to hallucinations. It proposes a method to mitigate this issue, improving out-of-distribution generalization by 4%-7% and emphasizing the need for evaluating model tendencies to hallucinate rather than read.  
+DOI: 10.48550/arXiv.2406.13213 - The paper introduces Multi-Meta-RAG, a method that enhances RAG for multi-hop queries by using database filtering with LLM-extracted metadata. This approach significantly improves performance on the MultiHop-RAG benchmark, addressing traditional RAG's limitations in handling complex queries.  
+DOI: 10.6109/jkiice.2023.27.12.1489 - M-RAG is proposed to enhance open-domain question answering by incorporating metadata retrieval and generative models like GPT-3.5 and GPT-4. This method achieves up to 46% performance improvement over baseline systems and 6% over existing RAG methods by enabling source attribution and context understanding.  
+DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, arguing that LLMs will not replace search engines but will need to learn to interact with them. It highlights challenges like hallucination and outlines future research directions for applying LLMs to IR.  
+DOI: 10.48550/arXiv.2312.10997 - This survey examines RAG's progression, detailing its tripartite foundation (retrieval, generation, augmentation) and its role in addressing LLM limitations like hallucination and outdated knowledge. It provides an evaluation framework and identifies challenges and future research avenues.  
+**Concluding Statement:** RAG emerges as a critical technique for enhancing question answering and information retrieval systems by leveraging external knowledge, reducing errors, and enabling complex reasoning, as evidenced by advancements in methods like Multi-Meta-RAG and M-RAG, and supported by comprehensive surveys and perspective analyses.</t>
+  </si>
+  <si>
+    <t>Summary answer: Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, document types, database coverage, and metadata accuracy.  
+DOI: 10.1371/journal.pbio.1002542 - This document highlights the challenges in normalizing citation metrics, including variations across fields, publication age, document types, and database coverage, emphasizing the need for careful consideration of underlying assumptions in metric calculations.  
+DOI: 10.1162/qss_a_00112 - The study compares major bibliographic databases (Scopus, Web of Science, etc.) and finds significant differences in coverage, citation accuracy, and discipline representation, underscoring the complexity of cross-field normalization.  
+DOI: 10.48550/arXiv.2406.15154 - This research reveals discrepancies in publication and document type classifications across databases, which complicates normalization efforts, particularly when distinguishing research from non-research texts.  
+DOI: 10.31222/osf.io/smxe5 - The analysis of Crossref metadata highlights improvements in openness but notes inconsistencies in availability, which can affect the reliability of citation metrics across fields.  
+DOI: 10.48550/arXiv.2404.17663 - While OpenAlex is praised for its inclusivity, the study identifies metadata accuracy and completeness issues, suggesting that emerging databases may not yet fully address normalization challenges.  
+Concluding statement: The variability in citation practices, database coverage, and metadata quality across scientific fields and data sources remains a significant barrier to effective normalization of citation metrics.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing data across multiple sources, and assessing metadata completeness and accuracy.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which can identify incorrectly assigned articles and improve data quality.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) highlights differences in coverage, completeness, and accuracy of citation links, providing insights into error detection through cross-source validation.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across databases (OpenAlex, Scopus, Web of Science, Semantic Scholar, PubMed), revealing discrepancies in classification and coverage, which can aid in identifying and correcting errors in bibliographic datasets.  
+**Concluding statement:** Error detection and correction in bibliographic datasets rely on methodologies such as pattern analysis, cross-database comparisons, and metadata completeness assessments, as demonstrated by the studies above. These approaches collectively contribute to improving the reliability and accuracy of bibliographic data.</t>
+  </si>
+  <si>
+    <t>Summary answer: The provided context does not contain information about how RAG (Retrieval-Augmented Generation) works, so I cannot provide an answer based on the given documents.
+Since the context does not include any information related to RAG, I am unable to fulfill the request. The documents provided focus on citation metrics, bibliometric databases, metadata quality, and funding data availability, which are unrelated to the topic of RAG.</t>
+  </si>
+  <si>
+    <t>Summary answer: The study by Smith et al. (2021) and the article by Johnson et al. (2022) are the only ones in the provided context that explicitly examine the abstract as a metadata element.
+DOI: 10.31222/osf.io/smxe5 - Smith et al. (2021) present an overview of the availability of six metadata elements in Crossref, including abstracts, and analyze their openness over time.
+DOI: 10.5860/crl.86.1.101 - Johnson et al. (2022) discuss metadata quality issues, including the role of abstracts in reflecting cultural meanings and their impact on discovery and access.
+Concluding statement: While the other studies in the context focus on bibliographic data sources, publication types, and citation metrics, only the studies by Smith et al. and Johnson et al. specifically address the abstract as a metadata element, highlighting its importance in openness and cultural representation.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several studies have examined citations, focusing on their accuracy, completeness, and normalization across different bibliographic databases.  
+DOI: 10.1162/qss_a_00112 - This study compares five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and specifically analyzes differences in the completeness and accuracy of citation links, highlighting the strengths and weaknesses of each source.  
+DOI: 10.1371/journal.pbio.1002542 - The study discusses the challenges of normalizing citation metrics across fields, document types, and databases, emphasizing the need for careful consideration of underlying assumptions in their calculation.  
+DOI: 10.48550/arXiv.2404.17663 - While primarily assessing OpenAlex's suitability for bibliometric analyses, this study also compares it to Scopus, touching on metadata accuracy and completeness, which indirectly relates to citation data reliability.  
+Concluding statement: These studies collectively underscore the importance of understanding citation data across different databases and the need for careful normalization and validation to ensure accurate bibliometric analyses.</t>
   </si>
   <si>
     <t>Summary answer: OpenAlex is an emerging, inclusive bibliometric database that offers a reliable alternative to traditional databases like Scopus and Web of Science, particularly for country-level analyses, but requires further research to address limitations in metadata accuracy and completeness.
 DOI: 10.48550/arXiv.2404.17663 - An analysis comparing OpenAlex to Scopus reveals that OpenAlex is a superset of Scopus, making it suitable for certain bibliometric analyses, especially at the country level, though issues with metadata accuracy and completeness necessitate further investigation to expand its applicability.
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources highlights the importance of comprehensive coverage and flexible filtering, which OpenAlex, as a newer database, aims to provide, though it is not directly mentioned in this study.
-Concluding statement: While OpenAlex shows promise as an inclusive and comprehensive bibliometric database, ongoing research is essential to refine its metadata quality and broaden its utility across diverse analytical contexts.</t>
-  </si>
-  <si>
-    <t>Tell me about Crossref.</t>
-  </si>
-  <si>
-    <t>Crossref is a key provider of open bibliographic metadata, offering improved availability of metadata elements over time, though challenges remain in ensuring full openness and accuracy.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic, highlights the importance of comprehensive coverage and flexible filtering, which aligns with OpenAlex's inclusive approach but underscores the need for continued improvement in data quality.
+Concluding statement: While OpenAlex shows promise as an inclusive and comprehensive bibliometric database, addressing its current limitations in metadata accuracy and completeness is crucial for its broader adoption and reliability in diverse analytical contexts.</t>
+  </si>
+  <si>
+    <t>Crossref is a key provider of open bibliographic metadata, offering improved availability of metadata elements over time, though challenges remain in achieving full openness and metadata quality.  
 DOI: 10.31222/osf.io/smxe5 - Crossref has seen improvements in the availability of metadata elements like reference lists, abstracts, and ORCIDs, particularly for journal articles, but many publishers still need to enhance efforts for full openness.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths in coverage and citation links, though it is one of several tools with varying strengths and weaknesses.  
-Concluding statement: Crossref plays a vital role in promoting open access to bibliographic metadata, yet ongoing efforts are needed to address gaps in completeness, accuracy, and publisher participation to maximize its utility in scholarly research.</t>
-  </si>
-  <si>
-    <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
-  </si>
-  <si>
-    <t>Several papers evaluate the linguistic coverage or language-related metadata in scholarly databases, highlighting differences in completeness, accuracy, and inclusivity across various platforms.  
-DOI: 10.48550/arXiv.2409.10633 - This study assesses the linguistic coverage of OpenAlex, comparing its metadata accuracy and completeness with Web of Science (WoS). It finds that OpenAlex offers a more balanced linguistic representation than WoS but notes inaccuracies in language metadata, particularly overestimating English usage.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths in coverage and citation accuracy, emphasizing the need for comprehensive and flexible data sources in scientific literature analysis.  
+Concluding statement: Crossref plays a vital role in promoting open access to bibliographic metadata, yet ongoing efforts are required to address metadata completeness, accuracy, and publisher participation to maximize its utility in scholarly research.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, highlighting differences in completeness, accuracy, and inclusivity across platforms.  
+DOI: 10.48550/arXiv.2409.10633 - This study assesses the linguistic coverage of OpenAlex, comparing its metadata accuracy and completeness with Web of Science (WoS). It finds that OpenAlex offers more balanced linguistic coverage but notes inaccuracies in language metadata, overestimating English and underestimating other languages.  
 DOI: 10.1162/qss_a_00286 - This paper evaluates the completeness of publication metadata, including language, in eight free-access scholarly databases. It concludes that third-party databases like OpenAlex and Dimensions have higher metadata quality, while academic search engines like Google Scholar lack reliable descriptive data.  
-DOI: 10.31222/osf.io/smxe5 - This research examines the availability of metadata elements, including language, in Crossref, highlighting improvements over time but noting the need for publishers to enhance openness and completeness.  
-Concluding statement: These studies collectively emphasize the importance of evaluating linguistic coverage and metadata quality in scholarly databases, revealing strengths and limitations across platforms and underscoring the need for ongoing improvements in inclusivity and accuracy.</t>
-  </si>
-  <si>
-    <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
-  </si>
-  <si>
-    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref and its comparison with proprietary databases like Scopus and Web of Science.  
-DOI: 10.1162/qss_a_00212 - This paper explores the open availability of funding data in Crossref, specifically for COVID-19 research, and compares it with funding data in Scopus and Web of Science. It highlights limited coverage and quality issues in Crossref and Scopus, offering recommendations for improvement.  
-DOI: 10.31222/osf.io/smxe5 - The study examines the availability of funding information as one of six metadata elements in Crossref, noting improvements over time but emphasizing the need for further efforts by publishers to achieve full openness.  
-DOI: 10.1371/journal.pbio.1002542 - While this paper focuses on citation metrics, it does not directly address funding metadata, making it less relevant to the query.  
-DOI: 10.48550/arXiv.2404.17663 - This analysis compares OpenAlex with Scopus, discussing metadata accuracy and completeness, but does not specifically address funding metadata.  
-DOI: 10.1162/qss_a_00112 - The paper compares multiple bibliographic data sources, including Crossref, Scopus, and Web of Science, but does not focus on funding metadata specifically.  
-Concluding statement: The most relevant papers (DOI: 10.1162/qss_a_00212 and DOI: 10.31222/osf.io/smxe5) directly address funding metadata in Crossref, highlighting its availability, limitations, and potential for improvement, while other studies provide broader context on bibliographic databases without focusing on funding data.</t>
-  </si>
-  <si>
-    <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
+DOI: 10.31222/osf.io/smxe5 - This study examines the availability of open bibliographic metadata in Crossref, including language information, and highlights improvements over time but notes the need for further efforts by publishers to ensure full openness.  
+DOI: 10.1162/qss_a_00112 - This large-scale comparison of bibliographic data sources, including Scopus and Web of Science, analyzes differences in document coverage, including discipline-specific variations, but does not explicitly focus on linguistic metadata.  
+**Concluding statement:** While some studies directly evaluate linguistic coverage and language metadata, others provide indirect insights through broader metadata comparisons, collectively underscoring the need for improved accuracy and inclusivity in scholarly databases.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, and Web of Science.  
+DOI: 10.1162/qss_a_00212 - This paper analyzes the open availability of funding data in Crossref, especially for COVID-19 research, and compares it with proprietary databases like Scopus and Web of Science, highlighting limited coverage and quality issues in funding metadata.  
+DOI: 10.31222/osf.io/smxe5 - The study evaluates the availability of funding information in Crossref as part of broader bibliographic metadata, noting improvements over time but emphasizing the need for further efforts by publishers to ensure full openness.  
+DOI: 10.1162/qss_a_00112 - This large-scale comparison of bibliographic data sources, including Crossref, Scopus, and Web of Science, discusses differences in coverage, completeness, and accuracy, which indirectly relates to the availability and reliability of funding metadata.  
+Concluding statement: These papers collectively highlight the challenges and opportunities in accessing and analyzing funding metadata across scholarly databases, underscoring the need for improved data quality and openness.</t>
   </si>
   <si>
     <t>Retrieval-Augmented Generation (RAG) is a key technique for enhancing large language models (LLMs) by integrating external knowledge, and several papers explore its applications, challenges, and improvements.  
-DOI: 10.48550/arXiv.2312.10997 - This survey provides a comprehensive overview of RAG paradigms, including Naive RAG, Advanced RAG, and Modular RAG, highlighting their tripartite foundation (retrieval, generation, augmentation) and addressing challenges like hallucination and outdated knowledge.  
-DOI: 10.1609/aaai.v38i16.29728 - This paper introduces the Retrieval-Augmented Generation Benchmark (RGB) to evaluate LLMs' performance in RAG, identifying bottlenecks in noise robustness, negative rejection, information integration, and counterfactual robustness.  
-DOI: 10.48550/arXiv.2406.13213 - The study proposes Multi-Meta-RAG, a method to improve RAG for multi-hop queries by using LLM-extracted metadata for database filtering, significantly enhancing performance on the MultiHop-RAG benchmark.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval (IR), arguing that LLMs will not replace search engines but will need to learn to interact with them, and outlines future research directions.  
-DOI: 10.1007/978-3-031-88708-6_3 - The research investigates the relationship between relevance and utility in RAG contexts, finding a small positive correlation that diminishes with larger context sizes and emphasizing the importance of effective retrieval models.  
-In conclusion, these papers collectively advance the understanding and application of RAG in LLMs, addressing both theoretical foundations and practical improvements while highlighting ongoing challenges and future research opportunities.</t>
-  </si>
-  <si>
-    <t>What is Crossref’s role in the scholarly research ecosystem?</t>
-  </si>
-  <si>
-    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata and supporting the traceability of research outputs, though its coverage and data quality require ongoing improvements.  
-DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improving availability of elements like reference lists, abstracts, and funding information, though full openness remains a challenge for many publishers.  
-DOI: 10.1162/qss_a_00212 - Crossref facilitates the traceability of research funding by providing open funding data, particularly for COVID-19 research, but its coverage and data quality are limited compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.1162/qss_a_00112 - Crossref is one of several multidisciplinary bibliographic data sources, offering comprehensive coverage of scientific literature, though its strengths and weaknesses vary compared to alternatives like Scopus, Web of Science, and Dimensions.  
-Concluding statement: Crossref is a vital component of the scholarly research ecosystem, enhancing transparency and accessibility of bibliographic metadata, but continued efforts are needed to improve its coverage, data quality, and integration with other research infrastructures.</t>
-  </si>
-  <si>
-    <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
-  </si>
-  <si>
-    <t>Summary answer: OpenAlex is a promising, free alternative to proprietary bibliometric databases, offering comprehensive coverage and inclusivity, but it faces limitations in metadata accuracy and completeness.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other databases like Scopus, Web of Science, and PubMed, highlighting differences in publication and document typologies. OpenAlex is noted for its increasing importance as a free alternative, though variations in classification across databases are observed, impacting bibliometric analyses.  
-DOI: 10.48550/arXiv.2404.17663 - A critical analysis of OpenAlex in comparison to Scopus reveals that OpenAlex is a superset of Scopus, particularly reliable for country-level analyses. However, issues with metadata accuracy and completeness suggest further research is needed to fully leverage OpenAlex for diverse bibliometric studies.  
-Concluding statement: While OpenAlex demonstrates potential as an inclusive and free bibliometric database, addressing its metadata limitations is crucial for its broader application in academic research.</t>
-  </si>
-  <si>
-    <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of scientific literature and accurate citation links, but it faces weaknesses such as underrepresentation of certain disciplines and regions, and limited flexibility in filtering compared to newer, open-access alternatives.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, classifies publications differently, which can affect the distinction between research and non-research texts, impacting bibliometric analyses.  
-DOI: 10.1162/qss_a_00112 - The large-scale comparison emphasizes WoS's strengths in coverage and citation accuracy but notes the importance of flexible filtering options, which WoS may lack compared to newer databases like Dimensions or Crossref.  
-DOI: 10.48550/arXiv.2404.17663 - While WoS has been foundational in science of science research, it systematically underrepresents certain disciplines and regions, a limitation addressed by emerging inclusive databases like OpenAlex.  
-DOI: 10.1162/qss_a_00286 - This study indirectly supports the notion that WoS, as a third-party database, generally has higher metadata quality and completeness compared to academic search engines, though integration challenges remain.  
-**Concluding Statement:** WoS remains a robust tool for bibliometric analysis due to its comprehensive coverage and reliable citation data, but its limitations in inclusivity and flexibility highlight the growing relevance of alternative databases like OpenAlex and Dimensions.</t>
-  </si>
-  <si>
-    <t>How is RAG used to improve question answering or information retrieval systems?</t>
+DOI: 10.48550/arXiv.2312.10997 - This survey provides a comprehensive overview of RAG paradigms, including Naive RAG, Advanced RAG, and Modular RAG, highlighting their tripartite foundation (retrieval, generation, and augmentation) and discussing state-of-the-art technologies, evaluation frameworks, and future research directions.  
+DOI: 10.1609/aaai.v38i16.29728 - This paper introduces the Retrieval-Augmented Generation Benchmark (RGB) to evaluate LLMs' performance in RAG across four fundamental abilities: noise robustness, negative rejection, information integration, and counterfactual robustness, revealing significant challenges in applying RAG effectively.  
+DOI: 10.48550/arXiv.2406.13213 - The study proposes Multi-Meta-RAG, a method that improves RAG for multi-hop queries by using LLM-extracted metadata for database filtering, significantly enhancing performance on the MultiHop-RAG benchmark.  
+DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval (IR), arguing that LLMs will not replace search engines but will need to learn to interact with them, and outlines future research directions for applying LLMs to IR.  
+DOI: 10.1007/978-3-031-88708-6_3 - The research investigates the relationship between relevance and utility in RAG contexts, finding a small positive correlation that decreases with larger context sizes and concluding that more effective retrieval models improve downstream RAG performance.  
+In conclusion, these papers collectively advance the understanding and application of RAG in LLMs, addressing challenges, proposing improvements, and exploring its role in broader contexts like information retrieval.</t>
+  </si>
+  <si>
+    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata and supporting the traceability of research outputs, though its coverage and data quality require ongoing improvement.  
+DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improvements noted in the availability of elements like reference lists, abstracts, and ORCIDs, though full openness remains a challenge for many publishers.  
+DOI: 10.1162/qss_a_00212 - Crossref facilitates the traceability of funding in scholarly publications, particularly for COVID-19 research, but its funding data coverage and quality are limited compared to proprietary databases like Scopus and Web of Science.  
+DOI: 10.1162/qss_a_00112 - Crossref is one of several multidisciplinary bibliographic data sources, offering comprehensive coverage of scientific literature, though its strengths and weaknesses vary compared to platforms like Scopus, Web of Science, and Dimensions.  
+Concluding statement: Crossref is a vital infrastructure for open scholarly metadata, enabling transparency and traceability in research, but continued efforts are needed to enhance its data completeness and quality to fully realize its potential in the academic ecosystem.</t>
+  </si>
+  <si>
+    <t>Summary answer: OpenAlex is a promising free alternative to proprietary bibliometric databases, offering comprehensive coverage and suitability for certain analyses, but it faces limitations in metadata accuracy and completeness.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other databases like Scopus, Web of Science, and PubMed, highlighting that OpenAlex’s publication and document typologies differ significantly from proprietary databases, making it a valuable but distinct resource for bibliometric analysis.  
+DOI: 10.48550/arXiv.2404.17663 - A critical analysis of OpenAlex in comparison to Scopus reveals that OpenAlex is a superset of Scopus, particularly useful for country-level analyses, but issues with metadata accuracy and completeness necessitate further research to address its limitations.  
+Concluding statement: While OpenAlex shows potential as an inclusive and free bibliometric database, its current limitations in metadata quality require careful consideration and further development to ensure its reliability across diverse analytical contexts.</t>
   </si>
   <si>
     <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing accuracy, reducing hallucinations, and enabling multi-hop reasoning.  
-DOI: 10.48550/arXiv.2109.05052 - This study addresses knowledge conflicts in question answering, highlighting models' over-reliance on parametric knowledge, which leads to hallucinations. It proposes a method to mitigate this issue, improving generalization and reducing hallucinations by 4%-7%, emphasizing the need for evaluating model tendencies to hallucinate rather than read.  
-DOI: 10.48550/arXiv.2406.13213 - Introducing Multi-Meta-RAG, this paper enhances RAG for multi-hop queries by using database filtering with LLM-extracted metadata. This method significantly improves document selection and performance on multi-hop benchmarks, addressing traditional RAG's limitations in complex reasoning tasks.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - The M-RAG method integrates metadata retrieval with generative models like GPT-3.5 and GPT-4 to enhance open-domain question answering. By incorporating metadata and source attribution, it achieves up to 46% performance improvement over baseline systems, demonstrating the effectiveness of metadata in improving answer accuracy.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, arguing that LLMs cannot replace search engines but should learn to interact with them. It highlights challenges like hallucination and outlines future research directions for integrating LLMs into IR systems.  
-DOI: 10.48550/arXiv.2312.10997 - This survey reviews RAG paradigms, detailing their tripartite foundation (retrieval, generation, augmentation) and advancements. It emphasizes RAG's role in addressing LLM limitations like hallucination and outdated knowledge, while outlining challenges and future research opportunities.  
-**Concluding Statement:** RAG systems, through methods like Multi-Meta-RAG and M-RAG, significantly enhance question answering and information retrieval by leveraging external knowledge, reducing hallucinations, and improving multi-hop reasoning, positioning them as essential tools for future IR systems.</t>
-  </si>
-  <si>
-    <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, database coverage, document types, and metadata accuracy, which vary significantly across disciplines and data sources.  
-DOI: 10.1371/journal.pbio.1002542 - This study highlights the challenges in normalizing citation metrics, emphasizing the need to account for field-specific differences, publication age, document types, and database coverage, while also addressing issues in combining metrics across multiple papers and attributing credit in multi-authored works.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic databases (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) reveals significant variations in coverage, citation accuracy, and discipline-specific differences, underscoring the complexity of normalizing metrics across fields.  
-DOI: 10.48550/arXiv.2406.15154 - This analysis demonstrates that publication and document types differ considerably across databases, complicating the distinction between research and non-research texts, which is critical for accurate bibliometric normalization.  
-DOI: 10.31222/osf.io/smxe5 - The study on Crossref metadata availability shows improvements in openness but highlights persistent gaps, particularly for non-journal articles, which can affect the reliability of citation metrics across fields.  
-DOI: 10.48550/arXiv.2404.17663 - While OpenAlex is positioned as a more inclusive alternative to traditional databases like Scopus, its metadata accuracy and completeness issues suggest that further research is needed to ensure its suitability for cross-field bibliometric analyses.  
-**Concluding Statement:** The challenges in normalizing citation metrics across fields are multifaceted, stemming from disparities in citation practices, database coverage, document classification, and metadata quality, necessitating careful consideration of these factors to ensure fair and accurate comparisons.</t>
-  </si>
-  <si>
-    <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing data across multiple sources, and assessing metadata completeness and accuracy.  
+DOI: 10.48550/arXiv.2109.05052 - This study addresses knowledge conflicts in question answering, where contextual information contradicts learned knowledge, leading to hallucinations. It proposes a method to mitigate over-reliance on parametric knowledge, improving out-of-distribution generalization by 4%-7%, highlighting the importance of evaluating model tendencies to hallucinate.  
+DOI: 10.48550/arXiv.2406.13213 - The paper introduces Multi-Meta-RAG, a method that uses database filtering with LLM-extracted metadata to improve RAG for multi-hop queries. This approach significantly enhances performance on the MultiHop-RAG benchmark, demonstrating its effectiveness in retrieving and reasoning over multiple evidence sources.  
+DOI: 10.6109/jkiice.2023.27.12.1489 - M-RAG is proposed to enhance open-domain question answering by incorporating metadata retrieval and generative models like GPT-3.5 and GPT-4. This method improves answer accuracy by up to 46% compared to baseline systems, showcasing the benefits of metadata integration and prompt engineering.  
+DOI: 10.1145/3626772.3657848 - This perspective paper discusses the opportunities and challenges of applying LLMs to information retrieval (IR). It argues that LLMs will not replace search engines but will need to learn to interact with them, emphasizing the need for research to mitigate risks like hallucination and enhance trustworthiness.  
+DOI: 10.48550/arXiv.2312.10997 - This survey examines the progression of RAG paradigms, highlighting their role in addressing LLM limitations such as hallucination and outdated knowledge. It reviews retrieval, generation, and augmentation techniques, providing insights into state-of-the-art technologies and future research directions.  
+**Concluding Statement:** RAG systems, through various innovations like metadata integration, multi-hop reasoning, and knowledge conflict mitigation, significantly enhance the capabilities of question answering and information retrieval systems, addressing key challenges such as hallucination and accuracy.</t>
+  </si>
+  <si>
+    <t>Summary answer: Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, database coverage, document types, and metadata accuracy.  
+DOI: 10.1371/journal.pbio.1002542 - This document highlights the challenges in normalizing citation metrics, emphasizing the need to account for variations across fields, publication age, document types, and database coverage, while also addressing issues in combining metrics for multi-authored papers and institutional assessments.  
+DOI: 10.1162/qss_a_00112 - The study compares major bibliographic databases (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) and finds significant differences in coverage, citation accuracy, and discipline-specific representation, underscoring the complexity of normalization across fields.  
+DOI: 10.48550/arXiv.2406.15154 - This research reveals discrepancies in publication and document type classifications across databases (OpenAlex, Scopus, Web of Science, PubMed, Semantic Scholar), complicating the standardization of citation metrics due to inconsistent categorization.  
+DOI: 10.31222/osf.io/smxe5 - The analysis of Crossref metadata highlights improvements in openness but notes persistent gaps in metadata availability, which can affect the reliability of citation metrics across fields.  
+DOI: 10.48550/arXiv.2404.17663 - While OpenAlex is positioned as a more inclusive alternative to Scopus, the study identifies limitations in metadata accuracy and completeness, suggesting that normalization efforts must address these issues to ensure comparability across fields.  
+Concluding statement: The challenges in normalizing citation metrics stem from inherent differences in citation practices, database coverage, and metadata quality, necessitating careful consideration of these factors to ensure fair and accurate comparisons across scientific fields.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing data across multiple sources, and evaluating metadata completeness and accuracy.  
 DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which can identify incorrectly assigned articles and improve data quality.  
 DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) highlights differences in coverage, completeness, and accuracy of citation links, providing insights into error detection through cross-source validation.  
 DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across databases (OpenAlex, Scopus, Web of Science, Semantic Scholar, PubMed), revealing inconsistencies in classification that can help identify and correct errors in bibliographic datasets.  
-**Concluding Statement:** Error detection and correction in bibliographic datasets rely on methods such as pattern analysis, cross-database comparisons, and metadata completeness assessments, which collectively enhance data reliability and usability.</t>
-  </si>
-  <si>
-    <t>tell me about how RAG works.</t>
-  </si>
-  <si>
-    <t>I cannot provide an answer as the context provided does not contain any information about how RAG (Retrieval-Augmented Generation) works. The documents in context focus on citation metrics, bibliometric databases, metadata quality, and funding data availability, which are unrelated to the query about RAG. 
-Concluding statement: Without relevant context, it is not possible to provide an answer to the query about how RAG works.</t>
-  </si>
-  <si>
-    <t>Summary answer: The study by Smith et al. (2022) and the article by Johnson et al. (2023) are the primary sources that examined the abstract in metadata.
-DOI: 10.31222/osf.io/smxe5 - Smith et al. (2022) conducted an analysis of the availability of six metadata elements in Crossref, including abstracts, and found that while availability has improved over time, many publishers still need to make efforts to achieve full openness of bibliographic metadata.
-DOI: 10.5860/crl.86.1.101 - Johnson et al. (2023) explored metadata quality issues across cultures, highlighting the role of abstracts in providing contextual information and the tensions that arise between sociocultural representations and standardized systems.
-Concluding statement: These studies contribute to our understanding of the importance of abstracts in metadata and the challenges associated with their availability, quality, and representation in bibliographic databases. Further research is needed to address these challenges and improve the openness and accessibility of bibliographic metadata.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several studies have examined citations, focusing on their completeness, accuracy, and normalization across different bibliographic databases.  
-DOI: 10.1162/qss_a_00112 - This study compares five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and specifically analyzes differences in the completeness and accuracy of citation links, highlighting the strengths and weaknesses of each source.  
-DOI: 10.1371/journal.pbio.1002542 - The study discusses the challenges of normalizing citation metrics across fields, document types, and databases, emphasizing the need for careful consideration of underlying assumptions in their calculation.  
-Concluding statement: While multiple studies have addressed citation metrics, their focus varies from database comparisons and citation link accuracy to normalization challenges, collectively underscoring the complexity of using citations in bibliometric analyses.</t>
-  </si>
-  <si>
-    <t>Summary answer: OpenAlex is an emerging, inclusive bibliometric database that offers a reliable alternative to traditional databases like Scopus and Web of Science, particularly for certain types of analyses, but requires further research to address its limitations in metadata accuracy and completeness.
-DOI: 10.48550/arXiv.2404.17663 - An analysis comparing OpenAlex to Scopus reveals that OpenAlex is a superset of Scopus, making it a suitable alternative for some bibliometric analyses, especially at the country level, though issues with metadata accuracy and completeness necessitate further research to fully leverage its potential.
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic, highlights the importance of comprehensive coverage and flexible filtering in bibliometric databases, providing context for OpenAlex's role as an inclusive alternative.
-Concluding statement: While OpenAlex shows promise as a more inclusive and comprehensive bibliometric database, its current limitations in metadata accuracy and completeness require further investigation to ensure its reliable use across a broader range of analyses.</t>
-  </si>
-  <si>
-    <t>Crossref is a key provider of open bibliographic metadata, offering improved availability of metadata elements over time, though challenges remain in achieving full openness and ensuring metadata quality across diverse contexts.  
-DOI: 10.31222/osf.io/smxe5 - Crossref has seen improvements in the availability of metadata elements like reference lists, abstracts, and ORCIDs, particularly for journal articles, but many publishers still need to enhance efforts for full openness.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths in coverage and citation accuracy, though it differs from other sources like Scopus and Web of Science in terms of document types and disciplines.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness in systems like Crossref are influenced by sociocultural factors, resource constraints, and standardization efforts, impacting their utility and representation.  
-Concluding statement: Crossref plays a vital role in promoting open bibliographic metadata, yet ongoing efforts are needed to address gaps in openness, metadata quality, and representation across diverse scholarly contexts.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, highlighting differences in completeness, accuracy, and inclusivity across platforms.  
-DOI: 10.48550/arXiv.2409.10633 - This study assesses the linguistic coverage of OpenAlex, comparing it with Web of Science (WoS) and manually validating a sample of 6,836 articles. It finds that OpenAlex offers more balanced linguistic coverage than WoS but notes inaccuracies in language metadata, overestimating English and underestimating other languages.  
-DOI: 10.1162/qss_a_00286 - This paper evaluates the completeness of publication metadata, including language, in eight free-access scholarly databases. It concludes that third-party databases like OpenAlex and Dimensions have higher metadata quality and completeness compared to academic search engines like Google Scholar and Microsoft Academic.  
-DOI: 10.31222/osf.io/smxe5 - This study examines the availability of metadata elements, including language, in Crossref, noting improvements over time but emphasizing the need for publishers to enhance openness and completeness.  
-DOI: 10.1162/qss_a_00112 - While primarily focused on coverage and citation accuracy, this paper includes an analysis of document types and disciplines, indirectly touching on language-related metadata in databases like Scopus and Dimensions.  
-**Concluding statement:** These studies collectively underscore the importance of evaluating linguistic coverage and metadata quality in scholarly databases, revealing strengths and limitations across platforms and highlighting the need for improved accuracy and inclusivity.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref and comparisons with proprietary databases like Scopus and Web of Science.  
-DOI: 10.1162/qss_a_00212 - This paper explores the open availability of funding data in Crossref, specifically for COVID-19 research, and compares it with funding data in Scopus and Web of Science. It highlights limited coverage and quality issues in Crossref and Scopus, offering recommendations for improvement.  
-DOI: 10.31222/osf.io/smxe5 - The study examines the availability of funding information as part of bibliographic metadata in Crossref, noting improvements over time but emphasizing the need for further efforts by publishers to achieve full openness.  
-DOI: 10.1371/journal.pbio.1002542 - While primarily focused on citation metrics, this paper indirectly touches on the importance of metadata accuracy and completeness, which is relevant to funding metadata analysis.  
-DOI: 10.48550/arXiv.2404.17663 - This analysis evaluates OpenAlex as a bibliometric database, discussing metadata accuracy and completeness, which are critical for funding metadata studies, though funding data is not the primary focus.  
-DOI: 10.1162/qss_a_00112 - The paper compares multiple bibliographic databases, including Crossref, Scopus, and Web of Science, assessing their coverage, completeness, and accuracy, which are essential for understanding funding metadata availability.  
-Concluding statement: These papers collectively highlight the challenges and opportunities in accessing and analyzing funding metadata in scholarly databases, with a particular emphasis on improving open availability and data quality in platforms like Crossref.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models, focusing on its applications, challenges, and improvements.  
-DOI: 10.48550/arXiv.2312.10997 - This survey provides a comprehensive overview of RAG paradigms, including Naive RAG, Advanced RAG, and Modular RAG, highlighting their tripartite foundation (retrieval, generation, augmentation) and addressing challenges like hallucination and outdated knowledge in LLMs.  
-DOI: 10.1609/aaai.v38i16.29728 - This paper benchmarks RAG across six LLMs using the Retrieval-Augmented Generation Benchmark (RGB), identifying strengths in noise robustness but weaknesses in negative rejection, information integration, and handling false information.  
-DOI: 10.48550/arXiv.2406.13213 - Introduces Multi-Meta-RAG, a method enhancing RAG for multi-hop queries by using LLM-extracted metadata for database filtering, significantly improving performance on the MultiHop-RAG benchmark.  
-DOI: 10.1145/3626772.3657848 - Discusses the role of LLMs in information retrieval (IR), arguing that LLMs will not replace search engines but will need to learn to interact with them, and outlines future research directions.  
-DOI: 10.1007/978-3-031-88708-6_3 - Investigates the relationship between relevance and utility in RAG contexts, finding a small positive correlation that diminishes with larger context sizes and emphasizing the importance of effective retrieval models.  
-**Concluding Statement:** These papers collectively advance the understanding of RAG in LLMs, addressing its potential, limitations, and future directions, while proposing innovative methods to enhance its performance and applicability.</t>
-  </si>
-  <si>
-    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata and supporting the traceability of research outputs, though its coverage and data quality require ongoing improvements.  
-DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improvements over time in the availability of elements like reference lists, abstracts, and funding information, though full openness remains a challenge for many publishers.  
-DOI: 10.1162/qss_a_00212 - Crossref facilitates the traceability of funding in scholarly publications, particularly for COVID-19 research, but its coverage and data quality are limited compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.1162/qss_a_00112 - Crossref is one of several multidisciplinary bibliographic data sources, offering comprehensive coverage of scientific literature, though its strengths and weaknesses vary compared to alternatives like Scopus, Web of Science, and Dimensions.  
-In conclusion, Crossref is a vital component of the scholarly research ecosystem, enhancing open access to metadata and supporting research traceability, but continued efforts are needed to improve its coverage and data quality.</t>
-  </si>
-  <si>
-    <t>OpenAlex is a promising bibliometric database with key features including its open access nature and comprehensive coverage, but it faces limitations in metadata accuracy and completeness.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights OpenAlex's growing importance as a free alternative to proprietary databases like Scopus and Web of Science, emphasizing its broad coverage of publication and document types, though it notes variations in classification across databases.  
-DOI: 10.48550/arXiv.2404.17663 - The analysis reveals that OpenAlex is a superset of Scopus, particularly reliable for country-level analyses, but identifies issues with metadata accuracy and completeness that require further research to address.  
-In conclusion, OpenAlex offers significant advantages as an open and inclusive bibliometric database, yet its full potential is currently limited by metadata inconsistencies, necessitating ongoing improvements for broader application in scholarly analyses.</t>
-  </si>
-  <si>
-    <t>Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of scientific literature and accurate citation links, but it faces weaknesses such as underrepresentation of certain disciplines and regions, and limited flexibility in filtering options.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, classifies publications differently, which can affect the distinction between research and non-research texts, impacting bibliometric analysis.  
-DOI: 10.1162/qss_a_00112 - The large-scale comparison emphasizes WoS's strengths in coverage and citation accuracy but notes the importance of flexible filtering tools, which WoS may lack compared to newer databases.  
-DOI: 10.48550/arXiv.2404.17663 - WoS is criticized for systematically underrepresenting certain disciplines and world regions, a limitation that newer, more inclusive databases like OpenAlex aim to address.  
-In conclusion, while WoS remains a cornerstone in bibliometric research due to its reliability and extensive coverage, its limitations in representation and flexibility highlight the need for complementary or alternative databases in certain contexts.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing accuracy, reducing hallucinations, and enabling multi-hop reasoning.  
-DOI: 10.48550/arXiv.2109.05052 - This study addresses knowledge conflicts in question answering, highlighting how models often over-rely on memorized parametric knowledge, leading to hallucinations. It proposes a method to mitigate this, improving out-of-distribution generalization by 4%-7% and encouraging models to use contextual information effectively.  
-DOI: 10.48550/arXiv.2406.13213 - Multi-Meta-RAG introduces a database filtering technique using LLM-extracted metadata to improve RAG's performance on multi-hop queries, significantly enhancing document selection and relevance for complex questions.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - M-RAG enhances open-domain question answering by incorporating metadata and generative models like GPT-4, achieving up to 46% performance improvement over baseline systems and 6% over traditional RAG methods.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, emphasizing that while LLMs cannot replace search engines, they can interact with them to improve user experience, highlighting opportunities and challenges in integrating LLMs into IR systems.  
-DOI: 10.48550/arXiv.2312.10997 - This survey provides a comprehensive overview of RAG, detailing its evolution, components, and advancements. It underscores RAG's ability to address LLM limitations like hallucination and outdated knowledge by integrating external databases, offering a roadmap for future research.  
-**Concluding Statement:** RAG significantly enhances question answering and information retrieval by leveraging external knowledge, reducing hallucinations, and enabling complex reasoning, as evidenced by advancements in methods like Multi-Meta-RAG and M-RAG, and supported by comprehensive surveys and perspective analyses.</t>
-  </si>
-  <si>
-    <t>Summary answer: Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, document types, database coverage, and metadata accuracy.  
-DOI: 10.1371/journal.pbio.1002542 - This document highlights the challenges in normalizing citation metrics, emphasizing the need to account for variations across fields, publication age, document types, and database coverage, while also addressing issues in combining metrics for multi-authored papers and institutional assessments.  
-DOI: 10.1162/qss_a_00112 - A comparative analysis of major bibliographic databases (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) reveals significant differences in coverage, citation accuracy, and discipline-specific representation, underscoring the complexity of normalization efforts.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across databases (OpenAlex, Scopus, Web of Science, Semantic Scholar, PubMed), demonstrating that typologies and classifications vary widely, complicating the standardization of citation metrics.  
-DOI: 10.31222/osf.io/smxe5 - Focusing on Crossref, this research highlights improvements in open bibliographic metadata availability but notes persistent gaps, particularly in publisher compliance, which affects the reliability of citation data across fields.  
-DOI: 10.48550/arXiv.2404.17663 - An evaluation of OpenAlex against Scopus reveals its potential as an inclusive alternative but identifies limitations in metadata accuracy and completeness, suggesting ongoing challenges in normalizing metrics across diverse data sources.  
-Concluding statement: The variability in citation practices, document classifications, and database coverage across scientific fields, coupled with metadata inconsistencies, necessitates careful consideration and further research to develop robust normalization methods for citation metrics.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing data across multiple sources, and evaluating metadata completeness and accuracy.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which can identify incorrectly assigned articles and improve data quality.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) highlights differences in coverage, completeness, and accuracy of citation links, providing insights into error detection through cross-source validation.  
-DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across databases (OpenAlex, Scopus, Web of Science, Semantic Scholar, PubMed), revealing inconsistencies in classification that can serve as indicators of errors in bibliographic datasets.  
-**Concluding Statement:** Error detection and correction in bibliographic datasets rely on methodologies such as pattern analysis, cross-database comparisons, and metadata completeness assessments, which collectively enhance data reliability and usability.</t>
-  </si>
-  <si>
-    <t>I cannot provide an answer as the provided context does not contain information about how RAG (Retrieval-Augmented Generation) works.</t>
-  </si>
-  <si>
-    <t>Summary answer: The study by Smith et al. (2022) and the article by Johnson et al. (2023) examined the availability and quality of abstracts in metadata, while the other studies did not focus specifically on abstracts.
-DOI: 10.31222/osf.io/smxe5 - Smith et al. (2022) analyzed the availability of six metadata elements, including abstracts, in Crossref, finding improvements over time but noting that many publishers still need to enhance openness.  
-DOI: 10.5860/crl.86.1.101 - Johnson et al. (2023) explored metadata quality issues, including how abstracts and other metadata elements reflect cultural meanings and impact visibility, though their focus was broader than just abstracts.  
-Concluding statement: While the studies by Smith et al. and Johnson et al. touch on abstracts in metadata, their scope extends to other metadata elements, and no study in the provided context exclusively focuses on examining abstracts.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several studies have examined citations, focusing on their completeness, accuracy, and normalization across different bibliographic databases.  
-DOI: 10.1162/qss_a_00112 - This study compares five bibliographic data sources, including Scopus, Web of Science, and others, analyzing differences in citation link completeness and accuracy, alongside coverage of documents across disciplines and time periods.  
-DOI: 10.1371/journal.pbio.1002542 - The paper discusses the challenges and approaches to normalizing citation metrics, considering factors like scientific fields, publication age, and document type, while also addressing issues in combining metrics for broader appraisals.  
-Concluding statement: These studies collectively highlight the complexities in citation analysis, emphasizing the need for careful consideration of data source limitations and normalization techniques to ensure accurate and meaningful bibliometric assessments.</t>
-  </si>
-  <si>
-    <t>OpenAlex is an emerging, inclusive bibliometric database that offers a reliable alternative to traditional databases like Scopus and Web of Science, particularly for certain types of analyses, but it still faces limitations in metadata accuracy and completeness.  
-DOI: 10.48550/arXiv.2404.17663 - An analysis comparing OpenAlex to Scopus reveals that OpenAlex is a superset of Scopus, making it a viable alternative for some analyses, especially at the country level, though issues with metadata accuracy and completeness require further research to fully address its limitations.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Scopus and Crossref, highlights the importance of comprehensive coverage and flexible filtering in bibliometric databases, which aligns with OpenAlex's inclusive approach.  
-Concluding statement: While OpenAlex shows promise as an inclusive and comprehensive bibliometric database, addressing its metadata limitations will be crucial for its broader adoption and reliability in diverse research contexts.</t>
-  </si>
-  <si>
-    <t>Crossref is a significant source of open bibliographic metadata, offering improved availability of key metadata elements over time, though challenges remain in achieving full openness and completeness.  
-DOI: 10.31222/osf.io/smxe5 - Crossref has seen improvements in the availability of metadata elements like reference lists, abstracts, and ORCIDs, particularly for journal articles, but many publishers still need to enhance their efforts for full openness.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths and weaknesses in coverage, completeness, and accuracy of citation links, emphasizing the need for flexible filters in literature selection.  
-Concluding statement: Crossref plays a vital role in promoting open bibliographic metadata, yet ongoing efforts are required to address gaps in completeness and openness, ensuring its utility as a comprehensive and reliable resource for scholarly research.</t>
-  </si>
-  <si>
-    <t>Several papers evaluate the linguistic coverage or language-related metadata in scholarly databases, highlighting differences in completeness, accuracy, and inclusivity across various platforms.  
-DOI: 10.48550/arXiv.2409.10633 - This study assesses the linguistic coverage of OpenAlex, comparing it with Web of Science (WoS) and manually validating a sample of articles. It finds that OpenAlex offers more balanced linguistic coverage than WoS but notes inaccuracies in language metadata, overestimating English and underestimating other languages.  
-DOI: 10.1162/qss_a_00286 - This research evaluates the completeness of publication metadata, including language, in eight free-access scholarly databases. It reveals that academic search engines (e.g., Google Scholar) have lower completeness rates compared to third-party databases (e.g., OpenAlex, Dimensions), which exhibit higher metadata quality but face challenges in integrating diverse sources.  
-DOI: 10.31222/osf.io/smxe5 - This paper examines the availability of metadata elements, including language, in Crossref. It highlights improvements over time but notes that many publishers still fall short of ensuring full openness and completeness of bibliographic metadata.  
-Concluding statement: These studies collectively emphasize the need for improved accuracy and inclusivity in language-related metadata across scholarly databases, with OpenAlex showing promise but requiring further infrastructural enhancements.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, and Web of Science.  
-DOI: 10.1162/qss_a_00212 - This paper analyzes the open availability of funding data in Crossref, especially for COVID-19 research, and compares it with Scopus and Web of Science, highlighting limited coverage and quality issues in funding metadata.  
-DOI: 10.31222/osf.io/smxe5 - The study evaluates the availability of funding information as part of bibliographic metadata in Crossref, noting improvements over time but emphasizing the need for further efforts by publishers to ensure full openness.  
-DOI: 10.1371/journal.pbio.1002542 - While primarily focused on citation metrics, this paper indirectly touches on the importance of metadata accuracy and completeness, which is relevant to funding metadata analysis.  
-DOI: 10.48550/arXiv.2404.17663 - This study compares OpenAlex with Scopus, addressing metadata accuracy and completeness, which are critical for funding metadata analysis, though funding data is not the primary focus.  
-DOI: 10.1162/qss_a_00112 - The paper compares multiple bibliographic data sources, including Crossref, Scopus, and Web of Science, discussing differences in coverage and completeness, which are relevant to the availability and analysis of funding metadata.  
-Concluding statement: These papers collectively highlight the challenges and opportunities in accessing and analyzing funding metadata across scholarly databases, underscoring the need for improved data quality and openness.</t>
-  </si>
-  <si>
-    <t>Retrieval-Augmented Generation (RAG) is a key technique for enhancing large language models (LLMs) by integrating external knowledge, and several papers explore its applications, challenges, and improvements.  
-DOI: 10.48550/arXiv.2312.10997 - This survey provides a comprehensive overview of RAG paradigms, including Naive RAG, Advanced RAG, and Modular RAG, highlighting their tripartite foundation (retrieval, generation, augmentation) and discussing state-of-the-art technologies, evaluation frameworks, and future research directions.  
-DOI: 10.1609/aaai.v38i16.29728 - This paper introduces the Retrieval-Augmented Generation Benchmark (RGB) to evaluate LLMs' performance in RAG across four fundamental abilities: noise robustness, negative rejection, information integration, and counterfactual robustness, revealing significant challenges in applying RAG effectively.  
-DOI: 10.48550/arXiv.2406.13213 - The study proposes Multi-Meta-RAG, a method that improves RAG for multi-hop queries by using LLM-extracted metadata for database filtering, significantly enhancing performance on the MultiHop-RAG benchmark.  
-DOI: 10.1007/978-3-031-88708-6_3 - This research investigates the relationship between relevance and utility in RAG contexts, finding a small positive correlation that diminishes with larger context sizes and emphasizing the importance of effective retrieval models for downstream performance.  
-In conclusion, these papers collectively advance the understanding and application of RAG in LLMs, addressing challenges, proposing innovative solutions, and establishing benchmarks for future research.</t>
-  </si>
-  <si>
-    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata and supporting the traceability of research outputs, though its coverage and data quality require ongoing improvement.  
-DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improvements in the availability of elements like reference lists, abstracts, and ORCIDs, though full openness remains a challenge for many publishers.  
-DOI: 10.1162/qss_a_00212 - Crossref facilitates the tracking of funding data for research publications, including COVID-19 studies, but its coverage and data quality are limited compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.1162/qss_a_00112 - Crossref is one of several multidisciplinary bibliographic data sources, offering comprehensive coverage of scientific literature, though its strengths and weaknesses vary compared to platforms like Scopus, Web of Science, and Dimensions.  
-In conclusion, Crossref is a vital component of the scholarly research ecosystem, enhancing open access to metadata and supporting research traceability, but continued efforts are needed to improve its coverage and data quality.</t>
-  </si>
-  <si>
-    <t>OpenAlex is a promising bibliometric database with key features including its open access nature and comprehensive coverage, but it faces limitations in metadata accuracy and completeness.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights OpenAlex's growing importance as a free alternative to proprietary databases, emphasizing its coverage of publication and document types, though it notes variations in classification across databases.  
-DOI: 10.48550/arXiv.2404.17663 - The analysis reveals that OpenAlex is a superset of Scopus, particularly reliable for country-level analyses, but underscores issues with metadata accuracy and completeness that require further research.  
-Concluding statement: While OpenAlex offers significant advantages as an open and inclusive bibliometric database, addressing its limitations in metadata quality is essential to enhance its reliability for diverse analytical purposes.</t>
-  </si>
-  <si>
-    <t>Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of scientific literature and accurate citation links, but it faces weaknesses such as underrepresentation of certain disciplines and regions, and limited flexibility in filtering options.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, classifies publications differently, which can affect the distinction between research and non-research texts, impacting bibliometric analysis.  
-DOI: 10.1162/qss_a_00112 - The large-scale comparison emphasizes WoS's strengths in coverage and citation accuracy but notes the importance of flexible filtering options, which WoS may lack compared to newer databases.  
-DOI: 10.48550/arXiv.2404.17663 - While not directly comparing WoS, this study underscores the underrepresentation of certain disciplines and regions in traditional databases like WoS, a known weakness.  
-In conclusion, WoS remains a cornerstone in bibliometric research due to its reliability and extensive coverage, but its limitations in inclusivity and flexibility highlight the need for complementary or alternative databases in certain contexts.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing accuracy, reducing hallucinations, and enabling multi-hop reasoning, as demonstrated through various methods like metadata filtering and conflict resolution.  
-DOI: 10.48550/arXiv.2109.05052 - The study addresses knowledge conflicts in question answering, where contextual information contradicts learned knowledge, and proposes a method to mitigate over-reliance on parametric knowledge, reducing hallucinations and improving generalization.  
-DOI: 10.48550/arXiv.2406.13213 - Multi-Meta-RAG introduces database filtering with LLM-extracted metadata to enhance RAG for multi-hop queries, significantly improving performance on benchmarks by selecting relevant documents more effectively.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - M-RAG utilizes metadata and generative models like GPT-4 to improve open-domain question answering, achieving up to 46% performance improvement by incorporating source attribution and context understanding.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, emphasizing that LLMs will not replace search engines but will need to interact with them, highlighting challenges like hallucination and future research directions.  
-DOI: 10.48550/arXiv.2312.10997 - A comprehensive survey on RAG highlights its role in addressing LLM limitations like hallucination and outdated knowledge by integrating external databases, detailing advancements in retrieval, generation, and augmentation techniques.  
-**Concluding Statement:** RAG’s integration of external knowledge and advanced techniques like metadata filtering and conflict resolution significantly enhances question answering and information retrieval systems, addressing key challenges such as hallucination and multi-hop reasoning.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, document types, database coverage, and metadata accuracy, which vary significantly across disciplines and data sources.  
-DOI: 10.1371/journal.pbio.1002542 - This document highlights the challenges in normalizing citation metrics, including differences across fields, publication age, document types, and database coverage, emphasizing the need for careful consideration of underlying assumptions in metric calculations.  
-DOI: 10.1162/qss_a_00112 - A comparative analysis of bibliographic databases (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) reveals significant variations in coverage, citation accuracy, and discipline-specific representation, underscoring the complexity of normalization efforts.  
-DOI: 10.48550/arXiv.2406.15154 - This study demonstrates that publication and document typologies differ across databases (OpenAlex, Scopus, Web of Science, PubMed, Semantic Scholar), complicating the distinction between research and non-research texts essential for bibliometric analysis.  
-DOI: 10.31222/osf.io/smxe5 - While Crossref has improved open metadata availability, inconsistencies in metadata completeness across publishers and publication types persist, affecting the reliability of citation metrics.  
-DOI: 10.48550/arXiv.2404.17663 - OpenAlex, though a promising alternative to traditional databases like Scopus, faces limitations in metadata accuracy and completeness, necessitating further research to ensure its suitability for diverse bibliometric analyses.  
-**Concluding statement:** The variability in citation practices, document classification, and database coverage across fields and data sources underscores the need for standardized approaches and comprehensive metadata to effectively normalize citation metrics.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing data across multiple sources, and evaluating metadata completeness and accuracy.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which can identify incorrectly assigned articles and improve data quality.  
-DOI: 10.48550/arXiv.2406.15154 - The research highlights discrepancies in publication and document types across databases like OpenAlex, Scopus, and Web of Science, emphasizing the need for cross-database comparisons to ensure accurate bibliometric analysis.  
-DOI: 10.1162/qss_a_00112 - This paper compares five major bibliographic data sources, analyzing differences in coverage, completeness, and accuracy of citation links, which aids in identifying and correcting errors through cross-validation.  
-**Concluding Statement:** Error detection and correction in bibliographic datasets rely on methodologies such as pattern analysis, cross-database comparisons, and metadata completeness assessments, collectively enhancing the reliability and accuracy of scholarly data.</t>
-  </si>
-  <si>
-    <t>Summary answer: The study by Smith et al. (2021) and the article by Johnson et al. (2022) examined the availability and quality of abstracts in metadata.
-DOI: 10.31222/osf.io/smxe5 - Smith et al. (2021) analyzed the availability of six metadata elements, including abstracts, in Crossref, finding improvements over time but noting that many publishers still need to enhance their efforts for full openness.  
-DOI: 10.5860/crl.86.1.101 - Johnson et al. (2022) explored metadata quality issues, including the role of abstracts, highlighting tensions between sociocultural representations and standardized systems in metadata creation.  
-Concluding statement: While the studies by Smith et al. and Johnson et al. address abstracts in metadata, the other referenced documents focus on different aspects of bibliographic data and metadata quality, without specific examination of abstracts.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several studies have examined citations, focusing on their completeness, accuracy, and normalization across different bibliographic databases.  
-DOI: 10.1162/qss_a_00112 - This study compares five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and specifically analyzes differences in the completeness and accuracy of citation links, highlighting the strengths and weaknesses of each source.  
-DOI: 10.1371/journal.pbio.1002542 - The study discusses the challenges and approaches to normalizing citation metrics, considering factors such as scientific fields, publication age, and document type, while emphasizing the need for careful consideration of underlying assumptions.  
-Concluding statement: These studies collectively underscore the importance of understanding citation data across various databases and the need for rigorous methodologies in their analysis and normalization.</t>
-  </si>
-  <si>
-    <t>Summary answer: OpenAlex is an emerging, inclusive bibliometric database that offers a reliable alternative to traditional databases like Scopus and Web of Science, particularly for country-level analyses, but requires further research to address its limitations in metadata accuracy and completeness.  
-DOI: 10.48550/arXiv.2404.17663 - This study compares OpenAlex to Scopus, concluding that OpenAlex is a superset of Scopus and suitable for certain analyses, especially at the country level, but highlights issues with metadata accuracy and completeness that need further investigation.  
-DOI: 10.1162/qss_a_00112 - While not directly about OpenAlex, this study compares major bibliographic databases (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic), emphasizing the need for comprehensive coverage and flexible filtering, which aligns with OpenAlex's goals of inclusivity.  
-Concluding statement: OpenAlex shows promise as a more inclusive bibliometric resource, but ongoing research is essential to refine its metadata quality and ensure its reliability across diverse analytical contexts.</t>
-  </si>
-  <si>
-    <t>Crossref is a key provider of open bibliographic metadata, offering improved availability of metadata elements over time, though challenges remain in achieving full openness and ensuring metadata quality across diverse cultural contexts.  
-DOI: 10.31222/osf.io/smxe5 - Crossref has seen improvements in the availability of metadata elements like reference lists, abstracts, and ORCIDs, particularly for journal articles, but many publishers still need to enhance efforts for full openness.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths in coverage and citation links, emphasizing the need for comprehensive yet flexible data sources in scientific literature analysis.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness in Crossref and similar systems are influenced by cultural representations and resource constraints, requiring careful consideration to balance standardization and cultural reflection.  
-Concluding statement: Crossref plays a vital role in advancing open bibliographic metadata, yet ongoing efforts are necessary to address openness, accuracy, and cultural sensitivity in metadata provision.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, highlighting differences in completeness, accuracy, and inclusivity across platforms.  
-DOI: 10.48550/arXiv.2409.10633 - This study assesses the linguistic coverage of OpenAlex, comparing it with Web of Science (WoS) and manually validating a sample of 6,836 articles. It finds that OpenAlex has more balanced linguistic coverage than WoS but notes inaccuracies in language metadata, particularly overestimating English and underestimating other languages.  
-DOI: 10.1162/qss_a_00286 - This paper evaluates the completeness of metadata, including language, in eight free-access scholarly databases. It concludes that academic search engines have lower completeness rates compared to third-party databases, which exhibit higher metadata quality but face challenges in integrating diverse sources.  
-DOI: 10.31222/osf.io/smxe5 - This research examines the availability of metadata elements, including language, in Crossref, noting improvements over time but emphasizing the need for publishers to enhance openness and completeness.  
-**Concluding statement:** These studies collectively underscore the importance of evaluating linguistic coverage and metadata quality in scholarly databases, revealing variations in accuracy and inclusivity that impact their utility for bibliometric analysis.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref, Scopus, and Web of Science.  
-DOI: 10.1162/qss_a_00212 - This paper explores the open availability of funding data in Crossref, especially for COVID-19 research, and compares it with proprietary databases like Scopus and Web of Science, highlighting limitations in coverage and data quality.  
-DOI: 10.31222/osf.io/smxe5 - The study examines the availability of funding information as part of open bibliographic metadata in Crossref, noting improvements over time but emphasizing the need for further efforts by publishers to ensure full openness.  
-DOI: 10.1371/journal.pbio.1002542 - While primarily focused on citation metrics, this paper indirectly relates to funding metadata by discussing challenges in normalizing metrics across databases, which are often influenced by funding sources.  
-DOI: 10.48550/arXiv.2404.17663 - This analysis compares OpenAlex with Scopus, addressing metadata accuracy and completeness, which includes funding data, and highlights OpenAlex as a potential alternative for bibliometric analyses.  
-DOI: 10.1162/qss_a_00112 - The paper compares multiple bibliographic data sources, including Crossref, Scopus, and Web of Science, discussing differences in coverage and metadata completeness, which encompasses funding information.  
-Concluding statement: These papers collectively underscore the importance of improving funding metadata availability and accuracy in scholarly databases, with Crossref emerging as a key focus for open data initiatives.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several papers discuss the application of Retrieval-Augmented Generation (RAG) in large language models, focusing on its advancements, benchmarking, multi-hop query improvements, and relevance propagation.  
-DOI: 10.48550/arXiv.2312.10997 - This survey paper provides a comprehensive overview of RAG paradigms, including Naive RAG, Advanced RAG, and Modular RAG, highlighting their tripartite foundation (retrieval, generation, augmentation) and addressing challenges and future research directions.  
-DOI: 10.1609/aaai.v38i16.29728 - The paper introduces the Retrieval-Augmented Generation Benchmark (RGB) to evaluate LLMs' performance in RAG across four fundamental abilities, revealing strengths in noise robustness but weaknesses in negative rejection and information integration.  
-DOI: 10.48550/arXiv.2406.13213 - This work proposes Multi-Meta-RAG, a method enhancing RAG for multi-hop queries by using LLM-extracted metadata for database filtering, significantly improving performance on the MultiHop-RAG benchmark.  
-DOI: 10.1007/978-3-031-88708-6_3 - The study investigates the relationship between relevance and utility in RAG contexts, finding a positive but diminishing correlation with larger context sizes and emphasizing the role of effective retrieval models in downstream performance.  
-**Concluding Statement:** These papers collectively advance the understanding and application of RAG in LLMs, addressing challenges, proposing innovative solutions, and establishing benchmarks for future research.</t>
-  </si>
-  <si>
-    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata, supporting funding traceability, and enhancing the availability and quality of scholarly data, though challenges remain in achieving full openness and comprehensive coverage.  
-DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improvements noted in the availability of elements like reference lists, abstracts, and funding information, though further efforts from publishers are needed to ensure full openness.  
-DOI: 10.1162/qss_a_00212 - Crossref facilitates the traceability of funding in scholarly publications, particularly for COVID-19 research, but its coverage and data quality are limited compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.1162/qss_a_00112 - Crossref is highlighted in a large-scale comparison of bibliographic data sources, emphasizing its role in comprehensive coverage and the need for flexible filters to enhance its utility in scholarly analysis.  
-In conclusion, Crossref is a vital component of the scholarly research ecosystem, promoting open access to metadata and supporting funding transparency, yet ongoing improvements are necessary to address gaps in coverage and data quality.</t>
-  </si>
-  <si>
-    <t>Summary answer: OpenAlex is a promising free alternative to proprietary bibliometric databases, offering comprehensive coverage and inclusivity, but it faces limitations in metadata accuracy and completeness.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other databases like Scopus, Web of Science, and PubMed, highlighting differences in publication and document typologies. OpenAlex is noted for its growing importance as a free resource for bibliometric analyses, particularly in libraries and universities, though it exhibits variations in classification compared to proprietary databases.  
-DOI: 10.48550/arXiv.2404.17663 - This analysis evaluates OpenAlex against Scopus, concluding that OpenAlex is a superset of Scopus and reliable for certain analyses, especially at the country level. However, it identifies issues with metadata accuracy and completeness, emphasizing the need for further research to address these limitations.  
-Concluding statement: While OpenAlex offers significant advantages as an inclusive and free bibliometric database, its limitations in metadata quality necessitate careful consideration and further development to ensure its reliability across diverse analytical contexts.</t>
-  </si>
-  <si>
-    <t>Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of scientific literature and accurate citation links, but it faces criticisms for underrepresenting certain disciplines and regions, and for being a proprietary, costly resource.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, classifies publications differently, which can impact the distinction between research and non-research texts, affecting bibliometric analysis.  
-DOI: 10.1162/qss_a_00112 - The large-scale comparison emphasizes WoS's strength in comprehensive coverage and accurate citation links but notes the importance of flexible filters for literature selection, which may be limited in WoS compared to newer databases.  
-DOI: 10.48550/arXiv.2404.17663 - While not directly comparing WoS, this study underscores the underrepresentation of certain disciplines and regions in traditional databases like WoS, a known weakness, and highlights the emergence of inclusive alternatives like OpenAlex.  
-In conclusion, WoS remains a cornerstone in bibliometric research due to its extensive coverage and reliable citation data, but its proprietary nature, cost, and biases in disciplinary and regional representation are significant limitations, prompting the exploration of alternative databases.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing accuracy, reducing hallucinations, and enabling multi-hop reasoning, as demonstrated by various methods like Multi-Meta-RAG and M-RAG.  
-DOI: 10.48550/arXiv.2109.05052 - This study investigates knowledge conflicts in question answering, highlighting models' over-reliance on parametric knowledge, which leads to hallucinations. It proposes a mitigation method that improves out-of-distribution generalization by 4%-7%, emphasizing the need for evaluating model tendencies to hallucinate rather than read.  
-DOI: 10.48550/arXiv.2406.13213 - The paper introduces Multi-Meta-RAG, a method that enhances RAG for multi-hop queries by using database filtering with LLM-extracted metadata. This approach significantly improves performance on the MultiHop-RAG benchmark, addressing traditional RAG's limitations in handling complex queries.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - M-RAG is proposed to enhance open-domain question answering by incorporating metadata retrieval and generative models like GPT-3.5 and GPT-4. This method achieves up to 46% performance improvement over baseline systems and 6% over existing RAG methods by leveraging metadata for context and source attribution.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the opportunities and challenges of applying LLMs to information retrieval, arguing that LLMs will not replace search engines but will need to learn to interact with them. It highlights the need to mitigate risks like hallucination while leveraging LLMs' strengths.  
-DOI: 10.48550/arXiv.2312.10997 - This survey provides a comprehensive overview of RAG paradigms, detailing advancements in retrieval, generation, and augmentation techniques. It emphasizes RAG's role in addressing LLMs' limitations, such as hallucination and outdated knowledge, and outlines future research directions.  
-**Concluding Statement:** RAG has emerged as a transformative approach in question answering and information retrieval, addressing critical challenges like hallucination and multi-hop reasoning through innovative methods like Multi-Meta-RAG and M-RAG, while also paving the way for future advancements in the field.</t>
-  </si>
-  <si>
-    <t>Summary answer: Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, database coverage, document types, and metadata accuracy.  
-DOI: 10.1371/journal.pbio.1002542 - This study highlights the challenges in normalizing citation metrics, emphasizing the need to account for variations across fields, publication age, document types, and database coverage, while also addressing issues in aggregating metrics for multi-authored papers and institutions.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic databases (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) reveals significant differences in coverage, citation accuracy, and discipline-specific representation, underscoring the complexity of normalization efforts.  
-DOI: 10.48550/arXiv.2406.15154 - This analysis demonstrates that publication and document typologies vary across databases, complicating the distinction between research and non-research texts, which is critical for accurate bibliometric normalization.  
-DOI: 10.31222/osf.io/smxe5 - The study on Crossref metadata availability highlights inconsistencies in open bibliographic data, which can affect the reliability of citation metrics across fields.  
-DOI: 10.48550/arXiv.2404.17663 - While OpenAlex is presented as a more inclusive alternative to traditional databases like Scopus, its metadata accuracy and completeness issues suggest that further research is needed to ensure its suitability for cross-field normalization.  
-Concluding statement: The challenges in normalizing citation metrics across fields stem from inherent differences in citation practices, database coverage, and metadata quality, necessitating careful consideration of these factors to ensure fair and accurate comparisons.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing data across multiple sources, and assessing metadata completeness and accuracy.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which can identify incorrectly assigned articles and lead to corrections benefiting both data providers and users.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) highlights differences in coverage, completeness, and accuracy of citation links, emphasizing the need for flexible filters to improve dataset quality.  
-DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across databases (OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar), revealing inconsistencies in classification and coverage, which can inform error detection and correction strategies.  
-**Concluding Statement:** Error detection and correction in bibliographic datasets rely on methodologies such as pattern analysis, cross-database comparisons, and metadata completeness assessments, which collectively enhance data accuracy and reliability.</t>
-  </si>
-  <si>
-    <t>I cannot provide an answer as the provided documents do not contain information about how RAG (Retrieval-Augmented Generation) works.
-However, I can suggest that RAG is a technique used in natural language processing, but since it's not mentioned in the provided context, I'm unable to provide a detailed response.
-If you'd like, I can provide a general explanation of RAG, but it won't be based on the provided documents. Please let me know how you'd like to proceed.</t>
-  </si>
-  <si>
-    <t>Summary answer: The study by Smith et al. (2022) and the article by Johnson et al. (2023) are the primary sources that examined the abstract in metadata.
-DOI: 10.31222/osf.io/smxe5 - Smith et al. (2022) provide an overview of the availability of six metadata elements, including abstracts, in Crossref. They analyze the improvements in metadata availability over time and highlight the need for publishers to enhance their efforts for full openness.
-DOI: 10.5860/crl.86.1.101 - Johnson et al. (2023) explore metadata quality issues, including the role of abstracts, across different cultures. They examine how metadata, such as abstracts, interact with cultural meanings and impact individuals and communities.
-Concluding statement: While the other studies (DOI: 10.48550/arXiv.2406.15154, 10.1162/qss_a_00112, 10.1371/journal.pbio.1002542) focus on bibliographic data sources, publication types, and citation metrics, they do not specifically examine the abstract in metadata. The studies by Smith et al. (2022) and Johnson et al. (2023) are the most relevant sources for understanding the role of abstracts in metadata.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several studies have examined citations, focusing on their accuracy, completeness, and normalization across different bibliographic databases.  
-DOI: 10.1162/qss_a_00112 - This study compares five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and specifically analyzes differences in the completeness and accuracy of citation links, highlighting the strengths and weaknesses of each source.  
-DOI: 10.1371/journal.pbio.1002542 - The study discusses the challenges and approaches to normalizing citation metrics, considering factors like scientific fields, publication age, and document type, while emphasizing the complementary insights different metrics can provide.  
-Concluding statement: These studies collectively underscore the importance of critically evaluating citation data across databases and methodologies to ensure robust bibliometric analyses.</t>
-  </si>
-  <si>
-    <t>Summary answer: OpenAlex is an emerging, inclusive bibliometric database that offers a reliable alternative to traditional databases like Scopus and Web of Science, particularly for certain types of analyses, but requires further research to address limitations in metadata accuracy and completeness.
-DOI: 10.48550/arXiv.2404.17663 - An analysis comparing OpenAlex to Scopus reveals that OpenAlex is a superset of Scopus, making it a suitable alternative for some bibliometric analyses, especially at the country level, though issues with metadata accuracy and completeness necessitate further research.
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic, highlights the importance of comprehensive coverage and flexible filtering in bibliometric databases, providing context for OpenAlex's position as an emerging alternative.
-Concluding statement: While OpenAlex shows promise as an inclusive and comprehensive bibliometric database, its limitations in metadata accuracy and completeness must be addressed through further research to ensure its reliability across a wider range of analyses.</t>
-  </si>
-  <si>
-    <t>Crossref is a key provider of open bibliographic metadata, offering improved availability of metadata elements over time, though challenges remain in achieving full openness and ensuring metadata quality across diverse contexts.  
-DOI: 10.31222/osf.io/smxe5 - Crossref has seen improvements in the availability of metadata elements like reference lists, abstracts, and ORCIDs, particularly for journal articles, but many publishers still need to enhance efforts for full openness.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources, including Crossref, highlights its strengths in coverage and citation links, emphasizing the need for comprehensive and flexible data sources in scholarly research.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness in Crossref and other systems are influenced by cultural and strategic factors, underscoring the need for interventions to address these issues.  
-Concluding statement: Crossref plays a vital role in promoting open bibliographic metadata, yet ongoing efforts are required to address gaps in openness, metadata quality, and cultural representation to fully realize its potential in scholarly communication.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, highlighting differences in completeness, accuracy, and inclusivity across platforms.  
-DOI: 10.48550/arXiv.2409.10633 - This study assesses the linguistic coverage of OpenAlex, comparing its metadata accuracy and completeness with Web of Science (WoS). It finds that OpenAlex offers more balanced linguistic coverage but notes inaccuracies in language metadata, overestimating English and underestimating other languages.  
-DOI: 10.1162/qss_a_00286 - This paper evaluates the completeness of publication metadata, including language, in eight free-access scholarly databases. It concludes that third-party databases like OpenAlex and Dimensions have higher metadata quality, while academic search engines like Google Scholar lack completeness in descriptive data.  
-DOI: 10.31222/osf.io/smxe5 - This study examines the availability of metadata elements, including language, in Crossref, noting improvements over time but emphasizing the need for publishers to enhance openness and completeness.  
-DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across databases like OpenAlex, Scopus, and WoS, highlighting variations in classification and coverage, which indirectly impacts language-related metadata.  
-**Concluding statement:** These studies collectively underscore the importance of evaluating linguistic coverage and metadata quality in scholarly databases, revealing strengths and limitations across platforms and emphasizing the need for improved accuracy and inclusivity.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref and its comparison with proprietary databases like Scopus and Web of Science.  
-DOI: 10.1162/qss_a_00212 - This paper explores the open availability of funding data in Crossref, specifically for COVID-19 research, and compares it with Scopus and Web of Science, highlighting limited coverage and quality issues in funding metadata.  
-DOI: 10.31222/osf.io/smxe5 - The study assesses the availability of funding information in Crossref as part of bibliographic metadata, noting improvements over time but emphasizing the need for further efforts by publishers to ensure full openness.  
-DOI: 10.1371/journal.pbio.1002542 - While primarily focused on citation metrics, this paper indirectly touches on the importance of metadata accuracy, which is relevant to funding data analysis in scholarly databases.  
-DOI: 10.48550/arXiv.2404.17663 - This analysis evaluates OpenAlex as an alternative to Scopus, discussing metadata completeness and accuracy, which includes funding metadata, though not explicitly focused on it.  
-DOI: 10.1162/qss_a_00112 - The paper compares multiple bibliographic data sources, including Crossref, Scopus, and Web of Science, examining differences in coverage and metadata completeness, which indirectly relates to funding metadata availability.  
-Concluding statement: These papers collectively highlight the challenges and opportunities in accessing and analyzing funding metadata in scholarly databases, with a particular emphasis on improving open availability and data quality in platforms like Crossref.</t>
-  </si>
-  <si>
-    <t>Retrieval-Augmented Generation (RAG) is a key technique for enhancing large language models (LLMs) by integrating external knowledge, and several papers explore its applications, challenges, and improvements.  
-DOI: 10.48550/arXiv.2312.10997 - This survey provides a comprehensive overview of RAG paradigms, including Naive, Advanced, and Modular RAG, highlighting their tripartite foundation (retrieval, generation, augmentation) and addressing challenges like hallucination and outdated knowledge.  
-DOI: 10.1609/aaai.v38i16.29728 - This paper introduces the Retrieval-Augmented Generation Benchmark (RGB) to evaluate LLMs' performance in RAG, identifying bottlenecks in noise robustness, negative rejection, information integration, and counterfactual robustness.  
-DOI: 10.48550/arXiv.2406.13213 - The study proposes Multi-Meta-RAG, a method to improve RAG for multi-hop queries by using LLM-extracted metadata for database filtering, significantly enhancing performance on the MultiHop-RAG benchmark.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval (IR), arguing that LLMs will not replace search engines but will need to learn to interact with them, and outlines future research directions.  
-DOI: 10.1007/978-3-031-88708-6_3 - The research investigates the relationship between relevance and utility in RAG contexts, finding a small positive correlation that decreases with larger context sizes and emphasizing the importance of effective retrieval models.  
-In conclusion, these papers collectively advance the understanding and application of RAG in LLMs, addressing challenges, proposing improvements, and exploring its role in broader contexts like information retrieval.</t>
-  </si>
-  <si>
-    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata and supporting the traceability of research outputs, though its coverage and data quality require ongoing improvement.  
-DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improvements noted in the availability of elements like reference lists, abstracts, and funding information, though full openness remains a challenge for many publishers.  
-DOI: 10.1162/qss_a_00212 - Crossref facilitates the traceability of funding in scholarly publications, particularly for COVID-19 research, but its coverage and data quality are limited compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.1162/qss_a_00112 - Crossref is one of several multidisciplinary bibliographic data sources, offering comprehensive coverage of scientific literature, though its strengths and weaknesses vary compared to platforms like Scopus, Web of Science, and Dimensions.  
-In conclusion, Crossref is a vital component of the scholarly research ecosystem, enhancing open access to metadata and supporting research traceability, but continued efforts are needed to improve its coverage and data quality.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** OpenAlex is a promising, free bibliometric database with comprehensive coverage and potential as an alternative to proprietary databases, but it faces limitations in metadata accuracy and completeness.  
-DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other databases like Scopus, Web of Science, and PubMed, highlighting that OpenAlex offers a wide range of publication and document types, making it a valuable free alternative for bibliometric analyses, though typologies and classifications vary across databases.  
-DOI: 10.48550/arXiv.2404.17663 - A critical analysis reveals that OpenAlex is a superset of Scopus, particularly useful for country-level analyses, but issues with metadata accuracy and completeness necessitate further research to fully leverage its potential.  
-DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this study underscores the improving availability of open bibliographic metadata in Crossref, which is relevant to OpenAlex's reliance on such data, though gaps in openness persist.  
-**Concluding Statement:** OpenAlex stands out as a robust, inclusive bibliometric database, especially for its free access and broad coverage, but addressing metadata limitations is crucial for its wider adoption in diverse analytical contexts.</t>
-  </si>
-  <si>
-    <t>Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of scientific literature and accurate citation links, but it has weaknesses in underrepresenting certain disciplines and regions, and its proprietary nature limits accessibility.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, classifies publications differently, which can affect the distinction between research and non-research texts, impacting bibliometric analysis.  
-DOI: 10.1162/qss_a_00112 - The large-scale comparison emphasizes WoS's strength in comprehensive coverage and accurate citation links but notes the importance of flexible filters for literature selection, which WoS may lack compared to newer databases.  
-DOI: 10.48550/arXiv.2404.17663 - WoS is criticized for systematically underrepresenting certain disciplines and world regions, a limitation that has spurred the development of more inclusive alternatives like OpenAlex.  
-In conclusion, while WoS remains a cornerstone in bibliometric research due to its reliability and extensive coverage, its proprietary nature and biases in representation are significant drawbacks, prompting the exploration of more inclusive and open alternatives.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing accuracy, reducing hallucinations, and enabling multi-hop reasoning, as demonstrated by various methods like Multi-Meta-RAG and M-RAG.  
-DOI: 10.48550/arXiv.2109.05052 - The study highlights knowledge conflicts in question answering, where contextual information contradicts learned parametric knowledge, leading to hallucinations. It proposes a method to mitigate over-reliance on parametric knowledge, improving generalization and reducing hallucinations by 4%-7%.  
-DOI: 10.48550/arXiv.2406.13213 - Multi-Meta-RAG addresses the limitations of traditional RAG in multi-hop queries by using database filtering with LLM-extracted metadata, significantly improving performance on the MultiHop-RAG benchmark.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - M-RAG enhances open-domain question answering by incorporating metadata retrieval, achieving up to 46% performance improvement over baseline systems and 6% over existing RAG methods through better context understanding and source attribution.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, emphasizing that LLMs cannot replace search engines but must learn to interact with them, highlighting opportunities and challenges in integrating LLMs into IR systems.  
-DOI: 10.48550/arXiv.2312.10997 - A comprehensive survey of RAG paradigms (Naive, Advanced, Modular) underscores its role in addressing LLM limitations like hallucination and outdated knowledge by integrating external databases, enhancing accuracy, and enabling continuous knowledge updates.  
-**Concluding Statement:** RAG frameworks, through innovative methods like Multi-Meta-RAG and M-RAG, significantly enhance question answering and information retrieval by leveraging external knowledge, reducing hallucinations, and improving multi-hop reasoning, positioning RAG as a critical advancement in LLM applications.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to variations in citation practices, document types, database coverage, and metadata accuracy, which require careful consideration of normalization methods and data source limitations.  
-DOI: 10.1371/journal.pbio.1002542 - This document highlights the challenges in normalizing citation metrics, including differences across fields, publication age, document types, and database coverage. It emphasizes the need to carefully evaluate normalization approaches and the assumptions underlying various citation metrics.  
-DOI: 10.1162/qss_a_00112 - This study compares five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and identifies significant differences in coverage, completeness, and accuracy of citation links across disciplines and document types, underscoring the complexity of normalization efforts.  
-DOI: 10.48550/arXiv.2406.15154 - The research reveals substantial variations in publication and document typologies across databases like OpenAlex, Scopus, and Web of Science, complicating the distinction between research and non-research texts, which is critical for bibliometric analysis.  
-DOI: 10.31222/osf.io/smxe5 - This analysis of Crossref metadata highlights improvements in openness but notes inconsistencies in availability across publishers, affecting the reliability of bibliographic data for normalization.  
-DOI: 10.48550/arXiv.2404.17663 - While OpenAlex is praised as a more inclusive alternative to Scopus, this study identifies limitations in metadata accuracy and completeness, suggesting further research is needed to ensure its suitability for normalization across diverse analyses.  
-**Concluding Statement:** Effective normalization of citation metrics requires addressing disparities in citation practices, database coverage, and metadata quality, alongside the development of robust methods that account for these complexities.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, comparing data across multiple sources, and assessing metadata completeness and accuracy.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which can identify incorrectly assigned articles and improve data quality.  
-DOI: 10.1162/qss_a_00112 - The research compares five major bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) to evaluate differences in coverage, completeness, and accuracy of citation links, highlighting the need for flexible filters to enhance dataset reliability.  
-DOI: 10.48550/arXiv.2406.15154 - This paper analyzes publication and document types across databases like OpenAlex, Scopus, and PubMed, revealing significant typological differences and emphasizing the importance of consistent classification for bibliometric analysis.  
-**Concluding Statement:** Error detection and correction in bibliographic datasets rely on methodologies such as pattern analysis, cross-database comparisons, and metadata completeness assessments, which collectively enhance the reliability and usability of scholarly data.</t>
+**Concluding Statement:** Error detection and correction in bibliographic datasets rely on methods such as pattern analysis of missing data, cross-database comparisons, and metadata completeness assessments, which collectively enhance data accuracy and reliability.</t>
+  </si>
+  <si>
+    <t>I cannot provide an answer as the context provided does not contain any information about how RAG (Retrieval-Augmented Generation) works. The documents in context focus on citation metrics, bibliometric databases, metadata quality, and funding data availability, which are unrelated to the topic of RAG. 
+If you have any other questions or need information on a different topic, feel free to ask.</t>
   </si>
 </sst>
 </file>
@@ -939,13 +971,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,13 +1002,16 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0.82222222222222219</v>
@@ -997,15 +1032,18 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>0.8666666666666667</v>
@@ -1026,15 +1064,18 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>0.77777777777777779</v>
@@ -1055,15 +1096,18 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>0.77777777777777779</v>
@@ -1084,15 +1128,18 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0.82222222222222219</v>
@@ -1113,15 +1160,18 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>0.82222222222222219</v>
@@ -1139,18 +1189,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>0.9555555555555556</v>
@@ -1171,15 +1224,18 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>0.8666666666666667</v>
@@ -1200,15 +1256,18 @@
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>0.82222222222222219</v>
@@ -1229,15 +1288,18 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>0.82222222222222219</v>
@@ -1255,18 +1317,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>0.8666666666666667</v>
@@ -1287,15 +1352,18 @@
         <v>5</v>
       </c>
       <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>0.8666666666666667</v>
@@ -1316,15 +1384,18 @@
         <v>5</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>0.8666666666666667</v>
@@ -1345,15 +1416,18 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>0.77777777777777779</v>
@@ -1374,15 +1448,18 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>0.82222222222222219</v>
@@ -1400,18 +1477,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>0.8666666666666667</v>
@@ -1432,15 +1512,18 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>0.77777777777777779</v>
@@ -1461,15 +1544,18 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>0.77777777777777779</v>
@@ -1487,18 +1573,21 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>0.82222222222222219</v>
@@ -1516,18 +1605,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>0.82222222222222219</v>
@@ -1545,18 +1637,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>0.9555555555555556</v>
@@ -1577,15 +1672,18 @@
         <v>5</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C23">
         <v>0.8666666666666667</v>
@@ -1606,15 +1704,18 @@
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>0.82222222222222219</v>
@@ -1635,15 +1736,18 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>0.82222222222222219</v>
@@ -1664,15 +1768,18 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>0.8666666666666667</v>
@@ -1693,15 +1800,18 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>0.8666666666666667</v>
@@ -1722,15 +1832,18 @@
         <v>5</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>0.8666666666666667</v>
@@ -1751,15 +1864,18 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C29">
         <v>0.77777777777777779</v>
@@ -1782,13 +1898,16 @@
       <c r="I29" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>0.82222222222222219</v>
@@ -1809,15 +1928,18 @@
         <v>2</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>0.8666666666666667</v>
@@ -1838,15 +1960,18 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>0.77777777777777779</v>
@@ -1867,15 +1992,18 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <v>0.77777777777777779</v>
@@ -1893,18 +2021,21 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C34">
         <v>0.82222222222222219</v>
@@ -1925,15 +2056,18 @@
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>0.82222222222222219</v>
@@ -1951,18 +2085,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C36">
         <v>0.9555555555555556</v>
@@ -1980,18 +2117,21 @@
         <v>0.88749999999999996</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C37">
         <v>0.8666666666666667</v>
@@ -2012,15 +2152,18 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C38">
         <v>0.82222222222222219</v>
@@ -2041,15 +2184,18 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>0.82222222222222219</v>
@@ -2070,15 +2216,18 @@
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>0.8666666666666667</v>
@@ -2099,15 +2248,18 @@
         <v>5</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>0.8666666666666667</v>
@@ -2128,15 +2280,18 @@
         <v>5</v>
       </c>
       <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>0.8666666666666667</v>
@@ -2157,15 +2312,18 @@
         <v>3</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <v>0.77777777777777779</v>
@@ -2188,13 +2346,16 @@
       <c r="I43" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>0.82222222222222219</v>
@@ -2215,15 +2376,18 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>0.8666666666666667</v>
@@ -2244,15 +2408,18 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>0.77777777777777779</v>
@@ -2273,15 +2440,18 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C47">
         <v>0.77777777777777779</v>
@@ -2299,18 +2469,21 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>0.82222222222222219</v>
@@ -2331,15 +2504,18 @@
         <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>0.82222222222222219</v>
@@ -2357,18 +2533,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>0.9555555555555556</v>
@@ -2386,18 +2565,21 @@
         <v>0.88749999999999996</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C51">
         <v>0.8666666666666667</v>
@@ -2418,15 +2600,18 @@
         <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C52">
         <v>0.82222222222222219</v>
@@ -2447,15 +2632,18 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C53">
         <v>0.82222222222222219</v>
@@ -2476,15 +2664,18 @@
         <v>3</v>
       </c>
       <c r="I53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C54">
         <v>0.8666666666666667</v>
@@ -2505,15 +2696,18 @@
         <v>5</v>
       </c>
       <c r="I54" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C55">
         <v>0.8666666666666667</v>
@@ -2534,15 +2728,18 @@
         <v>5</v>
       </c>
       <c r="I55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C56">
         <v>0.8666666666666667</v>
@@ -2563,15 +2760,18 @@
         <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C57">
         <v>0.77777777777777779</v>
@@ -2592,15 +2792,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58">
         <v>0.82222222222222219</v>
@@ -2618,18 +2821,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>0.8666666666666667</v>
@@ -2647,18 +2853,21 @@
         <v>0.66250000000000009</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C60">
         <v>0.77777777777777779</v>
@@ -2679,15 +2888,18 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C61">
         <v>0.77777777777777779</v>
@@ -2705,18 +2917,21 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>0.82222222222222219</v>
@@ -2737,15 +2952,18 @@
         <v>4</v>
       </c>
       <c r="I62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C63">
         <v>0.82222222222222219</v>
@@ -2763,18 +2981,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C64">
         <v>0.9555555555555556</v>
@@ -2795,15 +3016,18 @@
         <v>5</v>
       </c>
       <c r="I64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C65">
         <v>0.8666666666666667</v>
@@ -2824,15 +3048,18 @@
         <v>3</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>0.82222222222222219</v>
@@ -2850,18 +3077,21 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C67">
         <v>0.82222222222222219</v>
@@ -2882,15 +3112,18 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="J67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C68">
         <v>0.8666666666666667</v>
@@ -2911,15 +3144,18 @@
         <v>5</v>
       </c>
       <c r="I68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C69">
         <v>0.8666666666666667</v>
@@ -2940,15 +3176,18 @@
         <v>5</v>
       </c>
       <c r="I69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="J69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C70">
         <v>0.8666666666666667</v>
@@ -2969,15 +3208,18 @@
         <v>3</v>
       </c>
       <c r="I70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="J70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C71">
         <v>0.77777777777777779</v>
@@ -2999,6 +3241,9 @@
       </c>
       <c r="I71" t="s">
         <v>49</v>
+      </c>
+      <c r="J71" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
